--- a/data/NVIDIA_StockPriceDaily_20241101-Present.xlsx
+++ b/data/NVIDIA_StockPriceDaily_20241101-Present.xlsx
@@ -305,5751 +305,5843 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>45978.0</v>
+        <v>45982.0</v>
       </c>
       <c r="B1" s="2">
-        <v>185.97</v>
+        <v>181.24</v>
       </c>
       <c r="C1" s="2">
-        <v>189.0</v>
+        <v>184.56</v>
       </c>
       <c r="D1" s="2">
-        <v>184.32</v>
+        <v>172.93</v>
       </c>
       <c r="E1" s="2">
-        <v>186.6</v>
+        <v>178.88</v>
       </c>
       <c r="F1" s="2">
-        <v>186.6</v>
+        <v>178.88</v>
       </c>
       <c r="G1" s="3">
-        <v>1.728211E8</v>
+        <v>3.460685E8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4">
-        <v>45975.0</v>
+        <v>45981.0</v>
       </c>
       <c r="B2" s="5">
-        <v>182.86</v>
+        <v>195.95</v>
       </c>
       <c r="C2" s="5">
-        <v>191.01</v>
+        <v>196.0</v>
       </c>
       <c r="D2" s="5">
-        <v>180.58</v>
+        <v>179.85</v>
       </c>
       <c r="E2" s="5">
-        <v>190.17</v>
+        <v>180.64</v>
       </c>
       <c r="F2" s="5">
-        <v>190.17</v>
+        <v>180.64</v>
       </c>
       <c r="G2" s="6">
-        <v>1.865919E8</v>
+        <v>3.435048E8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45974.0</v>
+        <v>45980.0</v>
       </c>
       <c r="B3" s="2">
-        <v>191.05</v>
+        <v>184.79</v>
       </c>
       <c r="C3" s="2">
-        <v>191.44</v>
+        <v>187.86</v>
       </c>
       <c r="D3" s="2">
-        <v>183.85</v>
+        <v>182.83</v>
       </c>
       <c r="E3" s="2">
-        <v>186.86</v>
+        <v>186.52</v>
       </c>
       <c r="F3" s="2">
-        <v>186.86</v>
+        <v>186.52</v>
       </c>
       <c r="G3" s="3">
-        <v>2.074231E8</v>
+        <v>2.472464E8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4">
-        <v>45973.0</v>
+        <v>45979.0</v>
       </c>
       <c r="B4" s="5">
-        <v>195.72</v>
+        <v>183.38</v>
       </c>
       <c r="C4" s="5">
-        <v>195.89</v>
+        <v>184.8</v>
       </c>
       <c r="D4" s="5">
-        <v>191.13</v>
+        <v>179.65</v>
       </c>
       <c r="E4" s="5">
-        <v>193.8</v>
+        <v>181.36</v>
       </c>
       <c r="F4" s="5">
-        <v>193.8</v>
+        <v>181.36</v>
       </c>
       <c r="G4" s="6">
-        <v>1.549353E8</v>
+        <v>2.135989E8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>45972.0</v>
+        <v>45978.0</v>
       </c>
       <c r="B5" s="2">
-        <v>195.16</v>
+        <v>185.97</v>
       </c>
       <c r="C5" s="2">
-        <v>195.42</v>
+        <v>189.0</v>
       </c>
       <c r="D5" s="2">
-        <v>191.3</v>
+        <v>184.32</v>
       </c>
       <c r="E5" s="2">
-        <v>193.16</v>
+        <v>186.6</v>
       </c>
       <c r="F5" s="2">
-        <v>193.16</v>
+        <v>186.6</v>
       </c>
       <c r="G5" s="3">
-        <v>1.764833E8</v>
+        <v>1.728211E8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>45971.0</v>
+        <v>45975.0</v>
       </c>
       <c r="B6" s="5">
-        <v>195.11</v>
+        <v>182.86</v>
       </c>
       <c r="C6" s="5">
-        <v>199.94</v>
+        <v>191.01</v>
       </c>
       <c r="D6" s="5">
-        <v>193.79</v>
+        <v>180.58</v>
       </c>
       <c r="E6" s="5">
-        <v>199.05</v>
+        <v>190.17</v>
       </c>
       <c r="F6" s="5">
-        <v>199.05</v>
+        <v>190.17</v>
       </c>
       <c r="G6" s="6">
-        <v>1.988971E8</v>
+        <v>1.865919E8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45968.0</v>
+        <v>45974.0</v>
       </c>
       <c r="B7" s="2">
-        <v>184.9</v>
+        <v>191.05</v>
       </c>
       <c r="C7" s="2">
-        <v>188.32</v>
+        <v>191.44</v>
       </c>
       <c r="D7" s="2">
-        <v>178.91</v>
+        <v>183.85</v>
       </c>
       <c r="E7" s="2">
-        <v>188.15</v>
+        <v>186.86</v>
       </c>
       <c r="F7" s="2">
-        <v>188.15</v>
+        <v>186.86</v>
       </c>
       <c r="G7" s="3">
-        <v>2.649423E8</v>
+        <v>2.074231E8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <v>45967.0</v>
+        <v>45973.0</v>
       </c>
       <c r="B8" s="5">
-        <v>196.42</v>
+        <v>195.72</v>
       </c>
       <c r="C8" s="5">
-        <v>197.62</v>
+        <v>195.89</v>
       </c>
       <c r="D8" s="5">
-        <v>186.38</v>
+        <v>191.13</v>
       </c>
       <c r="E8" s="5">
-        <v>188.08</v>
+        <v>193.8</v>
       </c>
       <c r="F8" s="5">
-        <v>188.08</v>
+        <v>193.8</v>
       </c>
       <c r="G8" s="6">
-        <v>2.230298E8</v>
+        <v>1.549353E8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>45966.0</v>
+        <v>45972.0</v>
       </c>
       <c r="B9" s="2">
-        <v>198.77</v>
+        <v>195.16</v>
       </c>
       <c r="C9" s="2">
-        <v>202.92</v>
+        <v>195.42</v>
       </c>
       <c r="D9" s="2">
-        <v>194.65</v>
+        <v>191.3</v>
       </c>
       <c r="E9" s="2">
-        <v>195.21</v>
+        <v>193.16</v>
       </c>
       <c r="F9" s="2">
-        <v>195.21</v>
+        <v>193.16</v>
       </c>
       <c r="G9" s="3">
-        <v>1.713503E8</v>
+        <v>1.764833E8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>45965.0</v>
+        <v>45971.0</v>
       </c>
       <c r="B10" s="5">
-        <v>203.0</v>
+        <v>195.11</v>
       </c>
       <c r="C10" s="5">
-        <v>203.97</v>
+        <v>199.94</v>
       </c>
       <c r="D10" s="5">
-        <v>197.93</v>
+        <v>193.79</v>
       </c>
       <c r="E10" s="5">
-        <v>198.69</v>
+        <v>199.05</v>
       </c>
       <c r="F10" s="5">
-        <v>198.69</v>
+        <v>199.05</v>
       </c>
       <c r="G10" s="6">
-        <v>1.889193E8</v>
+        <v>1.988971E8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>45964.0</v>
+        <v>45968.0</v>
       </c>
       <c r="B11" s="2">
-        <v>208.08</v>
+        <v>184.9</v>
       </c>
       <c r="C11" s="2">
-        <v>211.34</v>
+        <v>188.32</v>
       </c>
       <c r="D11" s="2">
-        <v>205.56</v>
+        <v>178.91</v>
       </c>
       <c r="E11" s="2">
-        <v>206.88</v>
+        <v>188.15</v>
       </c>
       <c r="F11" s="2">
-        <v>206.88</v>
+        <v>188.15</v>
       </c>
       <c r="G11" s="3">
-        <v>1.802673E8</v>
+        <v>2.649423E8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>45961.0</v>
+        <v>45967.0</v>
       </c>
       <c r="B12" s="5">
-        <v>206.45</v>
+        <v>196.42</v>
       </c>
       <c r="C12" s="5">
-        <v>207.97</v>
+        <v>197.62</v>
       </c>
       <c r="D12" s="5">
-        <v>202.07</v>
+        <v>186.38</v>
       </c>
       <c r="E12" s="5">
-        <v>202.49</v>
+        <v>188.08</v>
       </c>
       <c r="F12" s="5">
-        <v>202.49</v>
+        <v>188.08</v>
       </c>
       <c r="G12" s="6">
-        <v>1.798022E8</v>
+        <v>2.230298E8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45960.0</v>
+        <v>45966.0</v>
       </c>
       <c r="B13" s="2">
-        <v>205.15</v>
+        <v>198.77</v>
       </c>
       <c r="C13" s="2">
-        <v>206.16</v>
+        <v>202.92</v>
       </c>
       <c r="D13" s="2">
-        <v>201.41</v>
+        <v>194.65</v>
       </c>
       <c r="E13" s="2">
-        <v>202.89</v>
+        <v>195.21</v>
       </c>
       <c r="F13" s="2">
-        <v>202.89</v>
+        <v>195.21</v>
       </c>
       <c r="G13" s="3">
-        <v>1.788644E8</v>
+        <v>1.713503E8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>45959.0</v>
+        <v>45965.0</v>
       </c>
       <c r="B14" s="5">
-        <v>207.98</v>
+        <v>203.0</v>
       </c>
       <c r="C14" s="5">
-        <v>212.19</v>
+        <v>203.97</v>
       </c>
       <c r="D14" s="5">
-        <v>204.78</v>
+        <v>197.93</v>
       </c>
       <c r="E14" s="5">
-        <v>207.04</v>
+        <v>198.69</v>
       </c>
       <c r="F14" s="5">
-        <v>207.04</v>
+        <v>198.69</v>
       </c>
       <c r="G14" s="6">
-        <v>3.088296E8</v>
+        <v>1.889193E8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>45958.0</v>
+        <v>45964.0</v>
       </c>
       <c r="B15" s="2">
-        <v>193.05</v>
+        <v>208.08</v>
       </c>
       <c r="C15" s="2">
-        <v>203.15</v>
+        <v>211.34</v>
       </c>
       <c r="D15" s="2">
-        <v>191.91</v>
+        <v>205.56</v>
       </c>
       <c r="E15" s="2">
-        <v>201.03</v>
+        <v>206.88</v>
       </c>
       <c r="F15" s="2">
-        <v>201.03</v>
+        <v>206.88</v>
       </c>
       <c r="G15" s="3">
-        <v>2.979862E8</v>
+        <v>1.802673E8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>45957.0</v>
+        <v>45961.0</v>
       </c>
       <c r="B16" s="5">
-        <v>189.99</v>
+        <v>206.45</v>
       </c>
       <c r="C16" s="5">
-        <v>192.0</v>
+        <v>207.97</v>
       </c>
       <c r="D16" s="5">
-        <v>188.43</v>
+        <v>202.07</v>
       </c>
       <c r="E16" s="5">
-        <v>191.49</v>
+        <v>202.49</v>
       </c>
       <c r="F16" s="5">
-        <v>191.49</v>
+        <v>202.49</v>
       </c>
       <c r="G16" s="6">
-        <v>1.534527E8</v>
+        <v>1.798022E8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>45954.0</v>
+        <v>45960.0</v>
       </c>
       <c r="B17" s="2">
-        <v>183.84</v>
+        <v>205.15</v>
       </c>
       <c r="C17" s="2">
-        <v>187.47</v>
+        <v>206.16</v>
       </c>
       <c r="D17" s="2">
-        <v>183.5</v>
+        <v>201.41</v>
       </c>
       <c r="E17" s="2">
-        <v>186.26</v>
+        <v>202.89</v>
       </c>
       <c r="F17" s="2">
-        <v>186.26</v>
+        <v>202.89</v>
       </c>
       <c r="G17" s="3">
-        <v>1.312967E8</v>
+        <v>1.788644E8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>45953.0</v>
+        <v>45959.0</v>
       </c>
       <c r="B18" s="5">
-        <v>180.42</v>
+        <v>207.98</v>
       </c>
       <c r="C18" s="5">
-        <v>183.03</v>
+        <v>212.19</v>
       </c>
       <c r="D18" s="5">
-        <v>179.79</v>
+        <v>204.78</v>
       </c>
       <c r="E18" s="5">
-        <v>182.16</v>
+        <v>207.04</v>
       </c>
       <c r="F18" s="5">
-        <v>182.16</v>
+        <v>207.04</v>
       </c>
       <c r="G18" s="6">
-        <v>1.113637E8</v>
+        <v>3.088296E8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>45952.0</v>
+        <v>45958.0</v>
       </c>
       <c r="B19" s="2">
-        <v>181.14</v>
+        <v>193.05</v>
       </c>
       <c r="C19" s="2">
-        <v>183.44</v>
+        <v>203.15</v>
       </c>
       <c r="D19" s="2">
-        <v>176.76</v>
+        <v>191.91</v>
       </c>
       <c r="E19" s="2">
-        <v>180.28</v>
+        <v>201.03</v>
       </c>
       <c r="F19" s="2">
-        <v>180.28</v>
+        <v>201.03</v>
       </c>
       <c r="G19" s="3">
-        <v>1.622496E8</v>
+        <v>2.979862E8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4">
-        <v>45951.0</v>
+        <v>45957.0</v>
       </c>
       <c r="B20" s="5">
-        <v>182.79</v>
+        <v>189.99</v>
       </c>
       <c r="C20" s="5">
-        <v>182.79</v>
+        <v>192.0</v>
       </c>
       <c r="D20" s="5">
-        <v>179.8</v>
+        <v>188.43</v>
       </c>
       <c r="E20" s="5">
-        <v>181.16</v>
+        <v>191.49</v>
       </c>
       <c r="F20" s="5">
-        <v>181.16</v>
+        <v>191.49</v>
       </c>
       <c r="G20" s="6">
-        <v>1.242402E8</v>
+        <v>1.534527E8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>45950.0</v>
+        <v>45954.0</v>
       </c>
       <c r="B21" s="2">
-        <v>183.13</v>
+        <v>183.84</v>
       </c>
       <c r="C21" s="2">
-        <v>185.2</v>
+        <v>187.47</v>
       </c>
       <c r="D21" s="2">
-        <v>181.73</v>
+        <v>183.5</v>
       </c>
       <c r="E21" s="2">
-        <v>182.64</v>
+        <v>186.26</v>
       </c>
       <c r="F21" s="2">
-        <v>182.64</v>
+        <v>186.26</v>
       </c>
       <c r="G21" s="3">
-        <v>1.285447E8</v>
+        <v>1.312967E8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4">
-        <v>45947.0</v>
+        <v>45953.0</v>
       </c>
       <c r="B22" s="5">
-        <v>180.18</v>
+        <v>180.42</v>
       </c>
       <c r="C22" s="5">
-        <v>184.1</v>
+        <v>183.03</v>
       </c>
       <c r="D22" s="5">
-        <v>179.75</v>
+        <v>179.79</v>
       </c>
       <c r="E22" s="5">
-        <v>183.22</v>
+        <v>182.16</v>
       </c>
       <c r="F22" s="5">
-        <v>183.22</v>
+        <v>182.16</v>
       </c>
       <c r="G22" s="6">
-        <v>1.731352E8</v>
+        <v>1.113637E8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>45946.0</v>
+        <v>45952.0</v>
       </c>
       <c r="B23" s="2">
-        <v>182.23</v>
+        <v>181.14</v>
       </c>
       <c r="C23" s="2">
-        <v>183.28</v>
+        <v>183.44</v>
       </c>
       <c r="D23" s="2">
-        <v>179.77</v>
+        <v>176.76</v>
       </c>
       <c r="E23" s="2">
-        <v>181.81</v>
+        <v>180.28</v>
       </c>
       <c r="F23" s="2">
-        <v>181.81</v>
+        <v>180.28</v>
       </c>
       <c r="G23" s="3">
-        <v>1.797233E8</v>
+        <v>1.622496E8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
-        <v>45945.0</v>
+        <v>45951.0</v>
       </c>
       <c r="B24" s="5">
-        <v>184.8</v>
+        <v>182.79</v>
       </c>
       <c r="C24" s="5">
-        <v>184.87</v>
+        <v>182.79</v>
       </c>
       <c r="D24" s="5">
-        <v>177.29</v>
+        <v>179.8</v>
       </c>
       <c r="E24" s="5">
-        <v>179.83</v>
+        <v>181.16</v>
       </c>
       <c r="F24" s="5">
-        <v>179.83</v>
+        <v>181.16</v>
       </c>
       <c r="G24" s="6">
-        <v>2.144505E8</v>
+        <v>1.242402E8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>45944.0</v>
+        <v>45950.0</v>
       </c>
       <c r="B25" s="2">
-        <v>184.77</v>
+        <v>183.13</v>
       </c>
       <c r="C25" s="2">
-        <v>184.8</v>
+        <v>185.2</v>
       </c>
       <c r="D25" s="2">
-        <v>179.7</v>
+        <v>181.73</v>
       </c>
       <c r="E25" s="2">
-        <v>180.03</v>
+        <v>182.64</v>
       </c>
       <c r="F25" s="2">
-        <v>180.03</v>
+        <v>182.64</v>
       </c>
       <c r="G25" s="3">
-        <v>2.056414E8</v>
+        <v>1.285447E8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4">
-        <v>45943.0</v>
+        <v>45947.0</v>
       </c>
       <c r="B26" s="5">
-        <v>187.97</v>
+        <v>180.18</v>
       </c>
       <c r="C26" s="5">
-        <v>190.11</v>
+        <v>184.1</v>
       </c>
       <c r="D26" s="5">
-        <v>185.96</v>
+        <v>179.75</v>
       </c>
       <c r="E26" s="5">
-        <v>188.32</v>
+        <v>183.22</v>
       </c>
       <c r="F26" s="5">
-        <v>188.32</v>
+        <v>183.22</v>
       </c>
       <c r="G26" s="6">
-        <v>1.534828E8</v>
+        <v>1.731352E8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>45940.0</v>
+        <v>45946.0</v>
       </c>
       <c r="B27" s="2">
-        <v>193.51</v>
+        <v>182.23</v>
       </c>
       <c r="C27" s="2">
-        <v>195.62</v>
+        <v>183.28</v>
       </c>
       <c r="D27" s="2">
-        <v>182.05</v>
+        <v>179.77</v>
       </c>
       <c r="E27" s="2">
-        <v>183.16</v>
+        <v>181.81</v>
       </c>
       <c r="F27" s="2">
-        <v>183.16</v>
+        <v>181.81</v>
       </c>
       <c r="G27" s="3">
-        <v>2.687744E8</v>
+        <v>1.797233E8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4">
-        <v>45939.0</v>
+        <v>45945.0</v>
       </c>
       <c r="B28" s="5">
-        <v>192.23</v>
+        <v>184.8</v>
       </c>
       <c r="C28" s="5">
-        <v>195.3</v>
+        <v>184.87</v>
       </c>
       <c r="D28" s="5">
-        <v>191.06</v>
+        <v>177.29</v>
       </c>
       <c r="E28" s="5">
-        <v>192.57</v>
+        <v>179.83</v>
       </c>
       <c r="F28" s="5">
-        <v>192.57</v>
+        <v>179.83</v>
       </c>
       <c r="G28" s="6">
-        <v>1.829972E8</v>
+        <v>2.144505E8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>45938.0</v>
+        <v>45944.0</v>
       </c>
       <c r="B29" s="2">
-        <v>186.57</v>
+        <v>184.77</v>
       </c>
       <c r="C29" s="2">
-        <v>189.6</v>
+        <v>184.8</v>
       </c>
       <c r="D29" s="2">
-        <v>186.54</v>
+        <v>179.7</v>
       </c>
       <c r="E29" s="2">
-        <v>189.11</v>
+        <v>180.03</v>
       </c>
       <c r="F29" s="2">
-        <v>189.11</v>
+        <v>180.03</v>
       </c>
       <c r="G29" s="3">
-        <v>1.301689E8</v>
+        <v>2.056414E8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4">
-        <v>45937.0</v>
+        <v>45943.0</v>
       </c>
       <c r="B30" s="5">
-        <v>186.23</v>
+        <v>187.97</v>
       </c>
       <c r="C30" s="5">
-        <v>189.06</v>
+        <v>190.11</v>
       </c>
       <c r="D30" s="5">
-        <v>184.0</v>
+        <v>185.96</v>
       </c>
       <c r="E30" s="5">
-        <v>185.04</v>
+        <v>188.32</v>
       </c>
       <c r="F30" s="5">
-        <v>185.04</v>
+        <v>188.32</v>
       </c>
       <c r="G30" s="6">
-        <v>1.40088E8</v>
+        <v>1.534828E8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>45936.0</v>
+        <v>45940.0</v>
       </c>
       <c r="B31" s="2">
-        <v>185.5</v>
+        <v>193.51</v>
       </c>
       <c r="C31" s="2">
-        <v>187.23</v>
+        <v>195.62</v>
       </c>
       <c r="D31" s="2">
-        <v>183.33</v>
+        <v>182.05</v>
       </c>
       <c r="E31" s="2">
-        <v>185.54</v>
+        <v>183.16</v>
       </c>
       <c r="F31" s="2">
-        <v>185.54</v>
+        <v>183.16</v>
       </c>
       <c r="G31" s="3">
-        <v>1.576781E8</v>
+        <v>2.687744E8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4">
-        <v>45933.0</v>
+        <v>45939.0</v>
       </c>
       <c r="B32" s="5">
-        <v>189.19</v>
+        <v>192.23</v>
       </c>
       <c r="C32" s="5">
-        <v>190.36</v>
+        <v>195.3</v>
       </c>
       <c r="D32" s="5">
-        <v>185.38</v>
+        <v>191.06</v>
       </c>
       <c r="E32" s="5">
-        <v>187.62</v>
+        <v>192.57</v>
       </c>
       <c r="F32" s="5">
-        <v>187.62</v>
+        <v>192.57</v>
       </c>
       <c r="G32" s="6">
-        <v>1.375969E8</v>
+        <v>1.829972E8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>45932.0</v>
+        <v>45938.0</v>
       </c>
       <c r="B33" s="2">
+        <v>186.57</v>
+      </c>
+      <c r="C33" s="2">
         <v>189.6</v>
       </c>
-      <c r="C33" s="2">
-        <v>191.05</v>
-      </c>
       <c r="D33" s="2">
-        <v>188.06</v>
+        <v>186.54</v>
       </c>
       <c r="E33" s="2">
-        <v>188.89</v>
+        <v>189.11</v>
       </c>
       <c r="F33" s="2">
-        <v>188.89</v>
+        <v>189.11</v>
       </c>
       <c r="G33" s="3">
-        <v>1.368058E8</v>
+        <v>1.301689E8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4">
-        <v>45931.0</v>
+        <v>45937.0</v>
       </c>
       <c r="B34" s="5">
-        <v>185.24</v>
+        <v>186.23</v>
       </c>
       <c r="C34" s="5">
-        <v>188.14</v>
+        <v>189.06</v>
       </c>
       <c r="D34" s="5">
-        <v>183.9</v>
+        <v>184.0</v>
       </c>
       <c r="E34" s="5">
-        <v>187.24</v>
+        <v>185.04</v>
       </c>
       <c r="F34" s="5">
-        <v>187.24</v>
+        <v>185.04</v>
       </c>
       <c r="G34" s="6">
-        <v>1.738449E8</v>
+        <v>1.40088E8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>45930.0</v>
+        <v>45936.0</v>
       </c>
       <c r="B35" s="2">
-        <v>182.08</v>
+        <v>185.5</v>
       </c>
       <c r="C35" s="2">
-        <v>187.35</v>
+        <v>187.23</v>
       </c>
       <c r="D35" s="2">
-        <v>181.48</v>
+        <v>183.33</v>
       </c>
       <c r="E35" s="2">
-        <v>186.58</v>
+        <v>185.54</v>
       </c>
       <c r="F35" s="2">
-        <v>186.58</v>
+        <v>185.54</v>
       </c>
       <c r="G35" s="3">
-        <v>2.36981E8</v>
+        <v>1.576781E8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4">
-        <v>45929.0</v>
+        <v>45933.0</v>
       </c>
       <c r="B36" s="5">
-        <v>180.43</v>
+        <v>189.19</v>
       </c>
       <c r="C36" s="5">
-        <v>184.0</v>
+        <v>190.36</v>
       </c>
       <c r="D36" s="5">
-        <v>180.32</v>
+        <v>185.38</v>
       </c>
       <c r="E36" s="5">
-        <v>181.85</v>
+        <v>187.62</v>
       </c>
       <c r="F36" s="5">
-        <v>181.85</v>
+        <v>187.62</v>
       </c>
       <c r="G36" s="6">
-        <v>1.930635E8</v>
+        <v>1.375969E8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>45926.0</v>
+        <v>45932.0</v>
       </c>
       <c r="B37" s="2">
-        <v>178.17</v>
+        <v>189.6</v>
       </c>
       <c r="C37" s="2">
-        <v>179.77</v>
+        <v>191.05</v>
       </c>
       <c r="D37" s="2">
-        <v>174.93</v>
+        <v>188.06</v>
       </c>
       <c r="E37" s="2">
-        <v>178.19</v>
+        <v>188.89</v>
       </c>
       <c r="F37" s="2">
-        <v>178.19</v>
+        <v>188.89</v>
       </c>
       <c r="G37" s="3">
-        <v>1.485737E8</v>
+        <v>1.368058E8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4">
-        <v>45925.0</v>
+        <v>45931.0</v>
       </c>
       <c r="B38" s="5">
-        <v>174.48</v>
+        <v>185.24</v>
       </c>
       <c r="C38" s="5">
-        <v>180.26</v>
+        <v>188.14</v>
       </c>
       <c r="D38" s="5">
-        <v>173.13</v>
+        <v>183.9</v>
       </c>
       <c r="E38" s="5">
-        <v>177.69</v>
+        <v>187.24</v>
       </c>
       <c r="F38" s="5">
-        <v>177.69</v>
+        <v>187.24</v>
       </c>
       <c r="G38" s="6">
-        <v>1.915867E8</v>
+        <v>1.738449E8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>45924.0</v>
+        <v>45930.0</v>
       </c>
       <c r="B39" s="2">
-        <v>179.77</v>
+        <v>182.08</v>
       </c>
       <c r="C39" s="2">
-        <v>179.78</v>
+        <v>187.35</v>
       </c>
       <c r="D39" s="2">
-        <v>175.4</v>
+        <v>181.48</v>
       </c>
       <c r="E39" s="2">
-        <v>176.97</v>
+        <v>186.58</v>
       </c>
       <c r="F39" s="2">
-        <v>176.97</v>
+        <v>186.58</v>
       </c>
       <c r="G39" s="3">
-        <v>1.435641E8</v>
+        <v>2.36981E8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4">
-        <v>45923.0</v>
+        <v>45929.0</v>
       </c>
       <c r="B40" s="5">
-        <v>181.97</v>
+        <v>180.43</v>
       </c>
       <c r="C40" s="5">
-        <v>182.42</v>
+        <v>184.0</v>
       </c>
       <c r="D40" s="5">
-        <v>176.21</v>
+        <v>180.32</v>
       </c>
       <c r="E40" s="5">
-        <v>178.43</v>
+        <v>181.85</v>
       </c>
       <c r="F40" s="5">
-        <v>178.43</v>
+        <v>181.85</v>
       </c>
       <c r="G40" s="6">
-        <v>1.925596E8</v>
+        <v>1.930635E8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>45922.0</v>
+        <v>45926.0</v>
       </c>
       <c r="B41" s="2">
-        <v>175.3</v>
+        <v>178.17</v>
       </c>
       <c r="C41" s="2">
-        <v>184.55</v>
+        <v>179.77</v>
       </c>
       <c r="D41" s="2">
-        <v>174.71</v>
+        <v>174.93</v>
       </c>
       <c r="E41" s="2">
-        <v>183.61</v>
+        <v>178.19</v>
       </c>
       <c r="F41" s="2">
-        <v>183.61</v>
+        <v>178.19</v>
       </c>
       <c r="G41" s="3">
-        <v>2.69637E8</v>
+        <v>1.485737E8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4">
-        <v>45919.0</v>
+        <v>45925.0</v>
       </c>
       <c r="B42" s="5">
-        <v>175.77</v>
+        <v>174.48</v>
       </c>
       <c r="C42" s="5">
-        <v>178.08</v>
+        <v>180.26</v>
       </c>
       <c r="D42" s="5">
-        <v>175.18</v>
+        <v>173.13</v>
       </c>
       <c r="E42" s="5">
-        <v>176.67</v>
+        <v>177.69</v>
       </c>
       <c r="F42" s="5">
-        <v>176.67</v>
+        <v>177.69</v>
       </c>
       <c r="G42" s="6">
-        <v>2.371821E8</v>
+        <v>1.915867E8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>45918.0</v>
+        <v>45924.0</v>
       </c>
       <c r="B43" s="2">
-        <v>173.98</v>
+        <v>179.77</v>
       </c>
       <c r="C43" s="2">
-        <v>177.1</v>
+        <v>179.78</v>
       </c>
       <c r="D43" s="2">
-        <v>172.96</v>
+        <v>175.4</v>
       </c>
       <c r="E43" s="2">
-        <v>176.24</v>
+        <v>176.97</v>
       </c>
       <c r="F43" s="2">
-        <v>176.24</v>
+        <v>176.97</v>
       </c>
       <c r="G43" s="3">
-        <v>1.917633E8</v>
+        <v>1.435641E8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <v>45917.0</v>
+        <v>45923.0</v>
       </c>
       <c r="B44" s="5">
-        <v>172.64</v>
+        <v>181.97</v>
       </c>
       <c r="C44" s="5">
-        <v>173.2</v>
+        <v>182.42</v>
       </c>
       <c r="D44" s="5">
-        <v>168.41</v>
+        <v>176.21</v>
       </c>
       <c r="E44" s="5">
-        <v>170.29</v>
+        <v>178.43</v>
       </c>
       <c r="F44" s="5">
-        <v>170.29</v>
+        <v>178.43</v>
       </c>
       <c r="G44" s="6">
-        <v>2.118438E8</v>
+        <v>1.925596E8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>45916.0</v>
+        <v>45922.0</v>
       </c>
       <c r="B45" s="2">
-        <v>177.0</v>
+        <v>175.3</v>
       </c>
       <c r="C45" s="2">
-        <v>177.5</v>
+        <v>184.55</v>
       </c>
       <c r="D45" s="2">
-        <v>174.38</v>
+        <v>174.71</v>
       </c>
       <c r="E45" s="2">
-        <v>174.88</v>
+        <v>183.61</v>
       </c>
       <c r="F45" s="2">
-        <v>174.88</v>
+        <v>183.61</v>
       </c>
       <c r="G45" s="3">
-        <v>1.407378E8</v>
+        <v>2.69637E8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4">
-        <v>45915.0</v>
+        <v>45919.0</v>
       </c>
       <c r="B46" s="5">
-        <v>175.67</v>
+        <v>175.77</v>
       </c>
       <c r="C46" s="5">
-        <v>178.85</v>
+        <v>178.08</v>
       </c>
       <c r="D46" s="5">
-        <v>174.51</v>
+        <v>175.18</v>
       </c>
       <c r="E46" s="5">
-        <v>177.75</v>
+        <v>176.67</v>
       </c>
       <c r="F46" s="5">
-        <v>177.75</v>
+        <v>176.67</v>
       </c>
       <c r="G46" s="6">
-        <v>1.470616E8</v>
+        <v>2.371821E8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
+        <v>45918.0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>173.98</v>
+      </c>
+      <c r="C47" s="2">
+        <v>177.1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>172.96</v>
+      </c>
+      <c r="E47" s="2">
+        <v>176.24</v>
+      </c>
+      <c r="F47" s="2">
+        <v>176.24</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.917633E8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4">
+        <v>45917.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>172.64</v>
+      </c>
+      <c r="C48" s="5">
+        <v>173.2</v>
+      </c>
+      <c r="D48" s="5">
+        <v>168.41</v>
+      </c>
+      <c r="E48" s="5">
+        <v>170.29</v>
+      </c>
+      <c r="F48" s="5">
+        <v>170.29</v>
+      </c>
+      <c r="G48" s="6">
+        <v>2.118438E8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45916.0</v>
+      </c>
+      <c r="B49" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>177.5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>174.38</v>
+      </c>
+      <c r="E49" s="2">
+        <v>174.88</v>
+      </c>
+      <c r="F49" s="2">
+        <v>174.88</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1.407378E8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4">
+        <v>45915.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>175.67</v>
+      </c>
+      <c r="C50" s="5">
+        <v>178.85</v>
+      </c>
+      <c r="D50" s="5">
+        <v>174.51</v>
+      </c>
+      <c r="E50" s="5">
+        <v>177.75</v>
+      </c>
+      <c r="F50" s="5">
+        <v>177.75</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1.470616E8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
         <v>45912.0</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B51" s="2">
         <v>177.77</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C51" s="2">
         <v>178.6</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D51" s="2">
         <v>176.45</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E51" s="2">
         <v>177.82</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F51" s="2">
         <v>177.82</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G51" s="3">
         <v>1.24911E8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>45911.0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>179.68</v>
-      </c>
-      <c r="C48" s="2">
-        <v>180.28</v>
-      </c>
-      <c r="D48" s="2">
-        <v>176.48</v>
-      </c>
-      <c r="E48" s="2">
-        <v>177.17</v>
-      </c>
-      <c r="F48" s="2">
-        <v>177.17</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1.511593E8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4">
-        <v>45910.0</v>
-      </c>
-      <c r="B49" s="5">
-        <v>176.64</v>
-      </c>
-      <c r="C49" s="5">
-        <v>179.29</v>
-      </c>
-      <c r="D49" s="5">
-        <v>175.47</v>
-      </c>
-      <c r="E49" s="5">
-        <v>177.33</v>
-      </c>
-      <c r="F49" s="5">
-        <v>177.32</v>
-      </c>
-      <c r="G49" s="6">
-        <v>2.26852E8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>45909.0</v>
-      </c>
-      <c r="B50" s="2">
-        <v>169.09</v>
-      </c>
-      <c r="C50" s="2">
-        <v>170.98</v>
-      </c>
-      <c r="D50" s="2">
-        <v>166.74</v>
-      </c>
-      <c r="E50" s="2">
-        <v>170.76</v>
-      </c>
-      <c r="F50" s="2">
-        <v>170.75</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1.575484E8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4">
-        <v>45908.0</v>
-      </c>
-      <c r="B51" s="5">
-        <v>167.55</v>
-      </c>
-      <c r="C51" s="5">
-        <v>170.96</v>
-      </c>
-      <c r="D51" s="5">
-        <v>167.35</v>
-      </c>
-      <c r="E51" s="5">
-        <v>168.31</v>
-      </c>
-      <c r="F51" s="5">
-        <v>168.3</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1.637691E8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>45905.0</v>
+        <v>45911.0</v>
       </c>
       <c r="B52" s="2">
-        <v>168.03</v>
+        <v>179.68</v>
       </c>
       <c r="C52" s="2">
-        <v>169.03</v>
+        <v>180.28</v>
       </c>
       <c r="D52" s="2">
-        <v>164.07</v>
+        <v>176.48</v>
       </c>
       <c r="E52" s="2">
-        <v>167.02</v>
+        <v>177.17</v>
       </c>
       <c r="F52" s="2">
-        <v>167.01</v>
+        <v>177.17</v>
       </c>
       <c r="G52" s="3">
-        <v>2.244414E8</v>
+        <v>1.511593E8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4">
-        <v>45904.0</v>
+        <v>45910.0</v>
       </c>
       <c r="B53" s="5">
-        <v>170.57</v>
+        <v>176.64</v>
       </c>
       <c r="C53" s="5">
-        <v>171.86</v>
+        <v>179.29</v>
       </c>
       <c r="D53" s="5">
-        <v>169.41</v>
+        <v>175.47</v>
       </c>
       <c r="E53" s="5">
-        <v>171.66</v>
+        <v>177.33</v>
       </c>
       <c r="F53" s="5">
-        <v>171.65</v>
+        <v>177.32</v>
       </c>
       <c r="G53" s="6">
-        <v>1.416701E8</v>
+        <v>2.26852E8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>45903.0</v>
+        <v>45909.0</v>
       </c>
       <c r="B54" s="2">
-        <v>171.06</v>
+        <v>169.09</v>
       </c>
       <c r="C54" s="2">
-        <v>172.41</v>
+        <v>170.98</v>
       </c>
       <c r="D54" s="2">
-        <v>168.88</v>
+        <v>166.74</v>
       </c>
       <c r="E54" s="2">
-        <v>170.62</v>
+        <v>170.76</v>
       </c>
       <c r="F54" s="2">
-        <v>170.61</v>
+        <v>170.75</v>
       </c>
       <c r="G54" s="3">
-        <v>1.644249E8</v>
+        <v>1.575484E8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4">
-        <v>45902.0</v>
+        <v>45908.0</v>
       </c>
       <c r="B55" s="5">
-        <v>170.0</v>
+        <v>167.55</v>
       </c>
       <c r="C55" s="5">
-        <v>172.38</v>
+        <v>170.96</v>
       </c>
       <c r="D55" s="5">
-        <v>167.22</v>
+        <v>167.35</v>
       </c>
       <c r="E55" s="5">
-        <v>170.78</v>
+        <v>168.31</v>
       </c>
       <c r="F55" s="5">
-        <v>170.77</v>
+        <v>168.3</v>
       </c>
       <c r="G55" s="6">
-        <v>2.311649E8</v>
+        <v>1.637691E8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>45898.0</v>
+        <v>45905.0</v>
       </c>
       <c r="B56" s="2">
-        <v>178.11</v>
+        <v>168.03</v>
       </c>
       <c r="C56" s="2">
-        <v>178.15</v>
+        <v>169.03</v>
       </c>
       <c r="D56" s="2">
-        <v>173.15</v>
+        <v>164.07</v>
       </c>
       <c r="E56" s="2">
-        <v>174.18</v>
+        <v>167.02</v>
       </c>
       <c r="F56" s="2">
-        <v>174.17</v>
+        <v>167.01</v>
       </c>
       <c r="G56" s="3">
-        <v>2.432579E8</v>
+        <v>2.244414E8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4">
-        <v>45897.0</v>
+        <v>45904.0</v>
       </c>
       <c r="B57" s="5">
-        <v>180.82</v>
+        <v>170.57</v>
       </c>
       <c r="C57" s="5">
-        <v>184.47</v>
+        <v>171.86</v>
       </c>
       <c r="D57" s="5">
-        <v>176.41</v>
+        <v>169.41</v>
       </c>
       <c r="E57" s="5">
-        <v>180.17</v>
+        <v>171.66</v>
       </c>
       <c r="F57" s="5">
-        <v>180.16</v>
+        <v>171.65</v>
       </c>
       <c r="G57" s="6">
-        <v>2.817878E8</v>
+        <v>1.416701E8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>45896.0</v>
+        <v>45903.0</v>
       </c>
       <c r="B58" s="2">
-        <v>181.98</v>
+        <v>171.06</v>
       </c>
       <c r="C58" s="2">
-        <v>182.49</v>
+        <v>172.41</v>
       </c>
       <c r="D58" s="2">
-        <v>179.1</v>
+        <v>168.88</v>
       </c>
       <c r="E58" s="2">
-        <v>181.6</v>
+        <v>170.62</v>
       </c>
       <c r="F58" s="2">
-        <v>181.59</v>
+        <v>170.61</v>
       </c>
       <c r="G58" s="3">
-        <v>2.355189E8</v>
+        <v>1.644249E8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4">
-        <v>45895.0</v>
+        <v>45902.0</v>
       </c>
       <c r="B59" s="5">
-        <v>180.06</v>
+        <v>170.0</v>
       </c>
       <c r="C59" s="5">
-        <v>182.39</v>
+        <v>172.38</v>
       </c>
       <c r="D59" s="5">
-        <v>178.81</v>
+        <v>167.22</v>
       </c>
       <c r="E59" s="5">
-        <v>181.77</v>
+        <v>170.78</v>
       </c>
       <c r="F59" s="5">
-        <v>181.76</v>
+        <v>170.77</v>
       </c>
       <c r="G59" s="6">
-        <v>1.686882E8</v>
+        <v>2.311649E8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>45894.0</v>
+        <v>45898.0</v>
       </c>
       <c r="B60" s="2">
-        <v>178.35</v>
+        <v>178.11</v>
       </c>
       <c r="C60" s="2">
-        <v>181.91</v>
+        <v>178.15</v>
       </c>
       <c r="D60" s="2">
-        <v>176.57</v>
+        <v>173.15</v>
       </c>
       <c r="E60" s="2">
-        <v>179.81</v>
+        <v>174.18</v>
       </c>
       <c r="F60" s="2">
-        <v>179.8</v>
+        <v>174.17</v>
       </c>
       <c r="G60" s="3">
-        <v>1.630128E8</v>
+        <v>2.432579E8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4">
-        <v>45891.0</v>
+        <v>45897.0</v>
       </c>
       <c r="B61" s="5">
-        <v>172.61</v>
+        <v>180.82</v>
       </c>
       <c r="C61" s="5">
-        <v>178.59</v>
+        <v>184.47</v>
       </c>
       <c r="D61" s="5">
-        <v>171.2</v>
+        <v>176.41</v>
       </c>
       <c r="E61" s="5">
-        <v>177.99</v>
+        <v>180.17</v>
       </c>
       <c r="F61" s="5">
-        <v>177.98</v>
+        <v>180.16</v>
       </c>
       <c r="G61" s="6">
-        <v>1.727894E8</v>
+        <v>2.817878E8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>45890.0</v>
+        <v>45896.0</v>
       </c>
       <c r="B62" s="2">
-        <v>174.85</v>
+        <v>181.98</v>
       </c>
       <c r="C62" s="2">
-        <v>176.9</v>
+        <v>182.49</v>
       </c>
       <c r="D62" s="2">
-        <v>173.81</v>
+        <v>179.1</v>
       </c>
       <c r="E62" s="2">
-        <v>174.98</v>
+        <v>181.6</v>
       </c>
       <c r="F62" s="2">
-        <v>174.97</v>
+        <v>181.59</v>
       </c>
       <c r="G62" s="3">
-        <v>1.400409E8</v>
+        <v>2.355189E8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4">
-        <v>45889.0</v>
+        <v>45895.0</v>
       </c>
       <c r="B63" s="5">
-        <v>175.17</v>
+        <v>180.06</v>
       </c>
       <c r="C63" s="5">
-        <v>176.0</v>
+        <v>182.39</v>
       </c>
       <c r="D63" s="5">
-        <v>168.8</v>
+        <v>178.81</v>
       </c>
       <c r="E63" s="5">
-        <v>175.4</v>
+        <v>181.77</v>
       </c>
       <c r="F63" s="5">
-        <v>175.39</v>
+        <v>181.76</v>
       </c>
       <c r="G63" s="6">
-        <v>2.151427E8</v>
+        <v>1.686882E8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>45888.0</v>
+        <v>45894.0</v>
       </c>
       <c r="B64" s="2">
-        <v>182.43</v>
+        <v>178.35</v>
       </c>
       <c r="C64" s="2">
-        <v>182.5</v>
+        <v>181.91</v>
       </c>
       <c r="D64" s="2">
-        <v>175.49</v>
+        <v>176.57</v>
       </c>
       <c r="E64" s="2">
-        <v>175.64</v>
+        <v>179.81</v>
       </c>
       <c r="F64" s="2">
-        <v>175.63</v>
+        <v>179.8</v>
       </c>
       <c r="G64" s="3">
-        <v>1.852292E8</v>
+        <v>1.630128E8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4">
-        <v>45887.0</v>
+        <v>45891.0</v>
       </c>
       <c r="B65" s="5">
-        <v>180.6</v>
+        <v>172.61</v>
       </c>
       <c r="C65" s="5">
-        <v>182.94</v>
+        <v>178.59</v>
       </c>
       <c r="D65" s="5">
-        <v>180.59</v>
+        <v>171.2</v>
       </c>
       <c r="E65" s="5">
-        <v>182.01</v>
+        <v>177.99</v>
       </c>
       <c r="F65" s="5">
-        <v>182.0</v>
+        <v>177.98</v>
       </c>
       <c r="G65" s="6">
-        <v>1.32008E8</v>
+        <v>1.727894E8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>45884.0</v>
+        <v>45890.0</v>
       </c>
       <c r="B66" s="2">
-        <v>181.88</v>
+        <v>174.85</v>
       </c>
       <c r="C66" s="2">
-        <v>181.9</v>
+        <v>176.9</v>
       </c>
       <c r="D66" s="2">
-        <v>178.04</v>
+        <v>173.81</v>
       </c>
       <c r="E66" s="2">
-        <v>180.45</v>
+        <v>174.98</v>
       </c>
       <c r="F66" s="2">
-        <v>180.44</v>
+        <v>174.97</v>
       </c>
       <c r="G66" s="3">
-        <v>1.566022E8</v>
+        <v>1.400409E8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4">
-        <v>45883.0</v>
+        <v>45889.0</v>
       </c>
       <c r="B67" s="5">
-        <v>179.75</v>
+        <v>175.17</v>
       </c>
       <c r="C67" s="5">
-        <v>183.02</v>
+        <v>176.0</v>
       </c>
       <c r="D67" s="5">
-        <v>179.46</v>
+        <v>168.8</v>
       </c>
       <c r="E67" s="5">
-        <v>182.02</v>
+        <v>175.4</v>
       </c>
       <c r="F67" s="5">
-        <v>182.01</v>
+        <v>175.39</v>
       </c>
       <c r="G67" s="6">
-        <v>1.29554E8</v>
+        <v>2.151427E8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>45882.0</v>
+        <v>45888.0</v>
       </c>
       <c r="B68" s="2">
-        <v>182.62</v>
+        <v>182.43</v>
       </c>
       <c r="C68" s="2">
-        <v>183.97</v>
+        <v>182.5</v>
       </c>
       <c r="D68" s="2">
-        <v>179.35</v>
+        <v>175.49</v>
       </c>
       <c r="E68" s="2">
-        <v>181.59</v>
+        <v>175.64</v>
       </c>
       <c r="F68" s="2">
-        <v>181.58</v>
+        <v>175.63</v>
       </c>
       <c r="G68" s="3">
-        <v>1.798717E8</v>
+        <v>1.852292E8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4">
-        <v>45881.0</v>
+        <v>45887.0</v>
       </c>
       <c r="B69" s="5">
-        <v>182.96</v>
+        <v>180.6</v>
       </c>
       <c r="C69" s="5">
-        <v>184.48</v>
+        <v>182.94</v>
       </c>
       <c r="D69" s="5">
-        <v>179.46</v>
+        <v>180.59</v>
       </c>
       <c r="E69" s="5">
-        <v>183.16</v>
+        <v>182.01</v>
       </c>
       <c r="F69" s="5">
-        <v>183.15</v>
+        <v>182.0</v>
       </c>
       <c r="G69" s="6">
-        <v>1.454857E8</v>
+        <v>1.32008E8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>45880.0</v>
+        <v>45884.0</v>
       </c>
       <c r="B70" s="2">
-        <v>182.05</v>
+        <v>181.88</v>
       </c>
       <c r="C70" s="2">
-        <v>183.84</v>
+        <v>181.9</v>
       </c>
       <c r="D70" s="2">
-        <v>180.25</v>
+        <v>178.04</v>
       </c>
       <c r="E70" s="2">
-        <v>182.06</v>
+        <v>180.45</v>
       </c>
       <c r="F70" s="2">
-        <v>182.05</v>
+        <v>180.44</v>
       </c>
       <c r="G70" s="3">
-        <v>1.383232E8</v>
+        <v>1.566022E8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4">
-        <v>45877.0</v>
+        <v>45883.0</v>
       </c>
       <c r="B71" s="5">
-        <v>181.55</v>
+        <v>179.75</v>
       </c>
       <c r="C71" s="5">
-        <v>183.3</v>
+        <v>183.02</v>
       </c>
       <c r="D71" s="5">
-        <v>180.4</v>
+        <v>179.46</v>
       </c>
       <c r="E71" s="5">
-        <v>182.7</v>
+        <v>182.02</v>
       </c>
       <c r="F71" s="5">
-        <v>182.69</v>
+        <v>182.01</v>
       </c>
       <c r="G71" s="6">
-        <v>1.233967E8</v>
+        <v>1.29554E8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>45876.0</v>
+        <v>45882.0</v>
       </c>
       <c r="B72" s="2">
-        <v>181.57</v>
+        <v>182.62</v>
       </c>
       <c r="C72" s="2">
-        <v>183.88</v>
+        <v>183.97</v>
       </c>
       <c r="D72" s="2">
-        <v>178.8</v>
+        <v>179.35</v>
       </c>
       <c r="E72" s="2">
-        <v>180.77</v>
+        <v>181.59</v>
       </c>
       <c r="F72" s="2">
-        <v>180.76</v>
+        <v>181.58</v>
       </c>
       <c r="G72" s="3">
-        <v>1.518784E8</v>
+        <v>1.798717E8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4">
-        <v>45875.0</v>
+        <v>45881.0</v>
       </c>
       <c r="B73" s="5">
-        <v>176.33</v>
+        <v>182.96</v>
       </c>
       <c r="C73" s="5">
-        <v>179.9</v>
+        <v>184.48</v>
       </c>
       <c r="D73" s="5">
-        <v>176.25</v>
+        <v>179.46</v>
       </c>
       <c r="E73" s="5">
-        <v>179.42</v>
+        <v>183.16</v>
       </c>
       <c r="F73" s="5">
-        <v>179.41</v>
+        <v>183.15</v>
       </c>
       <c r="G73" s="6">
-        <v>1.371923E8</v>
+        <v>1.454857E8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>45874.0</v>
+        <v>45880.0</v>
       </c>
       <c r="B74" s="2">
-        <v>179.62</v>
+        <v>182.05</v>
       </c>
       <c r="C74" s="2">
-        <v>180.26</v>
+        <v>183.84</v>
       </c>
       <c r="D74" s="2">
-        <v>175.9</v>
+        <v>180.25</v>
       </c>
       <c r="E74" s="2">
-        <v>178.26</v>
+        <v>182.06</v>
       </c>
       <c r="F74" s="2">
-        <v>178.25</v>
+        <v>182.05</v>
       </c>
       <c r="G74" s="3">
-        <v>1.564076E8</v>
+        <v>1.383232E8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4">
-        <v>45873.0</v>
+        <v>45877.0</v>
       </c>
       <c r="B75" s="5">
-        <v>175.16</v>
+        <v>181.55</v>
       </c>
       <c r="C75" s="5">
-        <v>180.2</v>
+        <v>183.3</v>
       </c>
       <c r="D75" s="5">
-        <v>174.52</v>
+        <v>180.4</v>
       </c>
       <c r="E75" s="5">
-        <v>180.0</v>
+        <v>182.7</v>
       </c>
       <c r="F75" s="5">
-        <v>179.99</v>
+        <v>182.69</v>
       </c>
       <c r="G75" s="6">
-        <v>1.481746E8</v>
+        <v>1.233967E8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>45870.0</v>
+        <v>45876.0</v>
       </c>
       <c r="B76" s="2">
-        <v>174.09</v>
+        <v>181.57</v>
       </c>
       <c r="C76" s="2">
-        <v>176.54</v>
+        <v>183.88</v>
       </c>
       <c r="D76" s="2">
-        <v>170.89</v>
+        <v>178.8</v>
       </c>
       <c r="E76" s="2">
-        <v>173.72</v>
+        <v>180.77</v>
       </c>
       <c r="F76" s="2">
-        <v>173.71</v>
+        <v>180.76</v>
       </c>
       <c r="G76" s="3">
-        <v>2.04529E8</v>
+        <v>1.518784E8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4">
-        <v>45869.0</v>
+        <v>45875.0</v>
       </c>
       <c r="B77" s="5">
-        <v>182.9</v>
+        <v>176.33</v>
       </c>
       <c r="C77" s="5">
-        <v>183.3</v>
+        <v>179.9</v>
       </c>
       <c r="D77" s="5">
-        <v>175.93</v>
+        <v>176.25</v>
       </c>
       <c r="E77" s="5">
-        <v>177.87</v>
+        <v>179.42</v>
       </c>
       <c r="F77" s="5">
-        <v>177.86</v>
+        <v>179.41</v>
       </c>
       <c r="G77" s="6">
-        <v>2.216854E8</v>
+        <v>1.371923E8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>45868.0</v>
+        <v>45874.0</v>
       </c>
       <c r="B78" s="2">
-        <v>176.51</v>
+        <v>179.62</v>
       </c>
       <c r="C78" s="2">
-        <v>179.89</v>
+        <v>180.26</v>
       </c>
       <c r="D78" s="2">
-        <v>176.04</v>
+        <v>175.9</v>
       </c>
       <c r="E78" s="2">
-        <v>179.27</v>
+        <v>178.26</v>
       </c>
       <c r="F78" s="2">
-        <v>179.26</v>
+        <v>178.25</v>
       </c>
       <c r="G78" s="3">
-        <v>1.743122E8</v>
+        <v>1.564076E8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4">
-        <v>45867.0</v>
+        <v>45873.0</v>
       </c>
       <c r="B79" s="5">
-        <v>177.96</v>
+        <v>175.16</v>
       </c>
       <c r="C79" s="5">
-        <v>179.38</v>
+        <v>180.2</v>
       </c>
       <c r="D79" s="5">
-        <v>175.02</v>
+        <v>174.52</v>
       </c>
       <c r="E79" s="5">
-        <v>175.51</v>
+        <v>180.0</v>
       </c>
       <c r="F79" s="5">
-        <v>175.5</v>
+        <v>179.99</v>
       </c>
       <c r="G79" s="6">
-        <v>1.540775E8</v>
+        <v>1.481746E8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>45866.0</v>
+        <v>45870.0</v>
       </c>
       <c r="B80" s="2">
-        <v>174.02</v>
+        <v>174.09</v>
       </c>
       <c r="C80" s="2">
-        <v>177.0</v>
+        <v>176.54</v>
       </c>
       <c r="D80" s="2">
-        <v>173.97</v>
+        <v>170.89</v>
       </c>
       <c r="E80" s="2">
-        <v>176.75</v>
+        <v>173.72</v>
       </c>
       <c r="F80" s="2">
-        <v>176.74</v>
+        <v>173.71</v>
       </c>
       <c r="G80" s="3">
-        <v>1.400235E8</v>
+        <v>2.04529E8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4">
-        <v>45863.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B81" s="5">
-        <v>173.61</v>
+        <v>182.9</v>
       </c>
       <c r="C81" s="5">
-        <v>174.72</v>
+        <v>183.3</v>
       </c>
       <c r="D81" s="5">
-        <v>172.96</v>
+        <v>175.93</v>
       </c>
       <c r="E81" s="5">
-        <v>173.5</v>
+        <v>177.87</v>
       </c>
       <c r="F81" s="5">
-        <v>173.49</v>
+        <v>177.86</v>
       </c>
       <c r="G81" s="6">
-        <v>1.223168E8</v>
+        <v>2.216854E8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>45862.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B82" s="2">
-        <v>172.44</v>
+        <v>176.51</v>
       </c>
       <c r="C82" s="2">
-        <v>173.83</v>
+        <v>179.89</v>
       </c>
       <c r="D82" s="2">
-        <v>171.3</v>
+        <v>176.04</v>
       </c>
       <c r="E82" s="2">
-        <v>173.74</v>
+        <v>179.27</v>
       </c>
       <c r="F82" s="2">
-        <v>173.73</v>
+        <v>179.26</v>
       </c>
       <c r="G82" s="3">
-        <v>1.289846E8</v>
+        <v>1.743122E8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4">
-        <v>45861.0</v>
+        <v>45867.0</v>
       </c>
       <c r="B83" s="5">
-        <v>169.53</v>
+        <v>177.96</v>
       </c>
       <c r="C83" s="5">
-        <v>171.26</v>
+        <v>179.38</v>
       </c>
       <c r="D83" s="5">
-        <v>167.97</v>
+        <v>175.02</v>
       </c>
       <c r="E83" s="5">
-        <v>170.78</v>
+        <v>175.51</v>
       </c>
       <c r="F83" s="5">
-        <v>170.77</v>
+        <v>175.5</v>
       </c>
       <c r="G83" s="6">
-        <v>1.540822E8</v>
+        <v>1.540775E8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>45860.0</v>
+        <v>45866.0</v>
       </c>
       <c r="B84" s="2">
-        <v>171.34</v>
+        <v>174.02</v>
       </c>
       <c r="C84" s="2">
-        <v>171.39</v>
+        <v>177.0</v>
       </c>
       <c r="D84" s="2">
-        <v>164.58</v>
+        <v>173.97</v>
       </c>
       <c r="E84" s="2">
-        <v>167.03</v>
+        <v>176.75</v>
       </c>
       <c r="F84" s="2">
-        <v>167.02</v>
+        <v>176.74</v>
       </c>
       <c r="G84" s="3">
-        <v>1.931143E8</v>
+        <v>1.400235E8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4">
-        <v>45859.0</v>
+        <v>45863.0</v>
       </c>
       <c r="B85" s="5">
-        <v>172.75</v>
+        <v>173.61</v>
       </c>
       <c r="C85" s="5">
-        <v>173.38</v>
+        <v>174.72</v>
       </c>
       <c r="D85" s="5">
-        <v>171.0</v>
+        <v>172.96</v>
       </c>
       <c r="E85" s="5">
-        <v>171.38</v>
+        <v>173.5</v>
       </c>
       <c r="F85" s="5">
-        <v>171.37</v>
+        <v>173.49</v>
       </c>
       <c r="G85" s="6">
-        <v>1.231261E8</v>
+        <v>1.223168E8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>45856.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B86" s="2">
-        <v>173.64</v>
+        <v>172.44</v>
       </c>
       <c r="C86" s="2">
-        <v>174.25</v>
+        <v>173.83</v>
       </c>
       <c r="D86" s="2">
-        <v>171.26</v>
+        <v>171.3</v>
       </c>
       <c r="E86" s="2">
-        <v>172.41</v>
+        <v>173.74</v>
       </c>
       <c r="F86" s="2">
-        <v>172.4</v>
+        <v>173.73</v>
       </c>
       <c r="G86" s="3">
-        <v>1.464564E8</v>
+        <v>1.289846E8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B87" s="5">
-        <v>172.02</v>
+        <v>169.53</v>
       </c>
       <c r="C87" s="5">
-        <v>174.16</v>
+        <v>171.26</v>
       </c>
       <c r="D87" s="5">
-        <v>170.83</v>
+        <v>167.97</v>
       </c>
       <c r="E87" s="5">
-        <v>173.0</v>
+        <v>170.78</v>
       </c>
       <c r="F87" s="5">
-        <v>172.99</v>
+        <v>170.77</v>
       </c>
       <c r="G87" s="6">
-        <v>1.608411E8</v>
+        <v>1.540822E8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>45854.0</v>
+        <v>45860.0</v>
       </c>
       <c r="B88" s="2">
-        <v>171.06</v>
+        <v>171.34</v>
       </c>
       <c r="C88" s="2">
-        <v>171.75</v>
+        <v>171.39</v>
       </c>
       <c r="D88" s="2">
-        <v>168.9</v>
+        <v>164.58</v>
       </c>
       <c r="E88" s="2">
-        <v>171.37</v>
+        <v>167.03</v>
       </c>
       <c r="F88" s="2">
-        <v>171.36</v>
+        <v>167.02</v>
       </c>
       <c r="G88" s="3">
-        <v>1.588315E8</v>
+        <v>1.931143E8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4">
-        <v>45853.0</v>
+        <v>45859.0</v>
       </c>
       <c r="B89" s="5">
-        <v>171.19</v>
+        <v>172.75</v>
       </c>
       <c r="C89" s="5">
-        <v>172.4</v>
+        <v>173.38</v>
       </c>
       <c r="D89" s="5">
-        <v>169.2</v>
+        <v>171.0</v>
       </c>
       <c r="E89" s="5">
-        <v>170.7</v>
+        <v>171.38</v>
       </c>
       <c r="F89" s="5">
-        <v>170.69</v>
+        <v>171.37</v>
       </c>
       <c r="G89" s="6">
-        <v>2.306274E8</v>
+        <v>1.231261E8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>45852.0</v>
+        <v>45856.0</v>
       </c>
       <c r="B90" s="2">
-        <v>165.37</v>
+        <v>173.64</v>
       </c>
       <c r="C90" s="2">
-        <v>165.49</v>
+        <v>174.25</v>
       </c>
       <c r="D90" s="2">
-        <v>162.02</v>
+        <v>171.26</v>
       </c>
       <c r="E90" s="2">
-        <v>164.07</v>
+        <v>172.41</v>
       </c>
       <c r="F90" s="2">
-        <v>164.06</v>
+        <v>172.4</v>
       </c>
       <c r="G90" s="3">
-        <v>1.369758E8</v>
+        <v>1.464564E8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4">
-        <v>45849.0</v>
+        <v>45855.0</v>
       </c>
       <c r="B91" s="5">
-        <v>163.72</v>
+        <v>172.02</v>
       </c>
       <c r="C91" s="5">
-        <v>167.89</v>
+        <v>174.16</v>
       </c>
       <c r="D91" s="5">
-        <v>163.47</v>
+        <v>170.83</v>
       </c>
       <c r="E91" s="5">
-        <v>164.92</v>
+        <v>173.0</v>
       </c>
       <c r="F91" s="5">
-        <v>164.91</v>
+        <v>172.99</v>
       </c>
       <c r="G91" s="6">
-        <v>1.936333E8</v>
+        <v>1.608411E8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>45848.0</v>
+        <v>45854.0</v>
       </c>
       <c r="B92" s="2">
-        <v>164.32</v>
+        <v>171.06</v>
       </c>
       <c r="C92" s="2">
-        <v>164.5</v>
+        <v>171.75</v>
       </c>
       <c r="D92" s="2">
-        <v>161.61</v>
+        <v>168.9</v>
       </c>
       <c r="E92" s="2">
-        <v>164.1</v>
+        <v>171.37</v>
       </c>
       <c r="F92" s="2">
-        <v>164.09</v>
+        <v>171.36</v>
       </c>
       <c r="G92" s="3">
-        <v>1.677041E8</v>
+        <v>1.588315E8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4">
-        <v>45847.0</v>
+        <v>45853.0</v>
       </c>
       <c r="B93" s="5">
-        <v>161.22</v>
+        <v>171.19</v>
       </c>
       <c r="C93" s="5">
-        <v>164.42</v>
+        <v>172.4</v>
       </c>
       <c r="D93" s="5">
-        <v>161.16</v>
+        <v>169.2</v>
       </c>
       <c r="E93" s="5">
-        <v>162.88</v>
+        <v>170.7</v>
       </c>
       <c r="F93" s="5">
-        <v>162.87</v>
+        <v>170.69</v>
       </c>
       <c r="G93" s="6">
-        <v>1.836564E8</v>
+        <v>2.306274E8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>45846.0</v>
+        <v>45852.0</v>
       </c>
       <c r="B94" s="2">
-        <v>159.33</v>
+        <v>165.37</v>
       </c>
       <c r="C94" s="2">
-        <v>160.22</v>
+        <v>165.49</v>
       </c>
       <c r="D94" s="2">
-        <v>158.39</v>
+        <v>162.02</v>
       </c>
       <c r="E94" s="2">
-        <v>160.0</v>
+        <v>164.07</v>
       </c>
       <c r="F94" s="2">
-        <v>159.99</v>
+        <v>164.06</v>
       </c>
       <c r="G94" s="3">
-        <v>1.38133E8</v>
+        <v>1.369758E8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4">
-        <v>45845.0</v>
+        <v>45849.0</v>
       </c>
       <c r="B95" s="5">
-        <v>158.2</v>
+        <v>163.72</v>
       </c>
       <c r="C95" s="5">
-        <v>159.31</v>
+        <v>167.89</v>
       </c>
       <c r="D95" s="5">
-        <v>157.34</v>
+        <v>163.47</v>
       </c>
       <c r="E95" s="5">
-        <v>158.24</v>
+        <v>164.92</v>
       </c>
       <c r="F95" s="5">
-        <v>158.23</v>
+        <v>164.91</v>
       </c>
       <c r="G95" s="6">
-        <v>1.40139E8</v>
+        <v>1.936333E8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>45841.0</v>
+        <v>45848.0</v>
       </c>
       <c r="B96" s="2">
-        <v>158.37</v>
+        <v>164.32</v>
       </c>
       <c r="C96" s="2">
-        <v>160.98</v>
+        <v>164.5</v>
       </c>
       <c r="D96" s="2">
-        <v>157.77</v>
+        <v>161.61</v>
       </c>
       <c r="E96" s="2">
-        <v>159.34</v>
+        <v>164.1</v>
       </c>
       <c r="F96" s="2">
-        <v>159.33</v>
+        <v>164.09</v>
       </c>
       <c r="G96" s="3">
-        <v>1.437161E8</v>
+        <v>1.677041E8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4">
-        <v>45840.0</v>
+        <v>45847.0</v>
       </c>
       <c r="B97" s="5">
-        <v>152.98</v>
+        <v>161.22</v>
       </c>
       <c r="C97" s="5">
-        <v>157.6</v>
+        <v>164.42</v>
       </c>
       <c r="D97" s="5">
-        <v>152.97</v>
+        <v>161.16</v>
       </c>
       <c r="E97" s="5">
-        <v>157.25</v>
+        <v>162.88</v>
       </c>
       <c r="F97" s="5">
-        <v>157.24</v>
+        <v>162.87</v>
       </c>
       <c r="G97" s="6">
-        <v>1.712241E8</v>
+        <v>1.836564E8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>45839.0</v>
+        <v>45846.0</v>
       </c>
       <c r="B98" s="2">
-        <v>156.29</v>
+        <v>159.33</v>
       </c>
       <c r="C98" s="2">
-        <v>157.2</v>
+        <v>160.22</v>
       </c>
       <c r="D98" s="2">
-        <v>151.49</v>
+        <v>158.39</v>
       </c>
       <c r="E98" s="2">
-        <v>153.3</v>
+        <v>160.0</v>
       </c>
       <c r="F98" s="2">
-        <v>153.29</v>
+        <v>159.99</v>
       </c>
       <c r="G98" s="3">
-        <v>2.131436E8</v>
+        <v>1.38133E8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4">
-        <v>45838.0</v>
+        <v>45845.0</v>
       </c>
       <c r="B99" s="5">
-        <v>158.4</v>
+        <v>158.2</v>
       </c>
       <c r="C99" s="5">
-        <v>158.66</v>
+        <v>159.31</v>
       </c>
       <c r="D99" s="5">
-        <v>155.96</v>
+        <v>157.34</v>
       </c>
       <c r="E99" s="5">
-        <v>157.99</v>
+        <v>158.24</v>
       </c>
       <c r="F99" s="5">
-        <v>157.98</v>
+        <v>158.23</v>
       </c>
       <c r="G99" s="6">
-        <v>1.945803E8</v>
+        <v>1.40139E8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>45835.0</v>
+        <v>45841.0</v>
       </c>
       <c r="B100" s="2">
-        <v>156.04</v>
+        <v>158.37</v>
       </c>
       <c r="C100" s="2">
-        <v>158.71</v>
+        <v>160.98</v>
       </c>
       <c r="D100" s="2">
-        <v>155.26</v>
+        <v>157.77</v>
       </c>
       <c r="E100" s="2">
-        <v>157.75</v>
+        <v>159.34</v>
       </c>
       <c r="F100" s="2">
-        <v>157.74</v>
+        <v>159.33</v>
       </c>
       <c r="G100" s="3">
-        <v>2.632345E8</v>
+        <v>1.437161E8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4">
-        <v>45834.0</v>
+        <v>45840.0</v>
       </c>
       <c r="B101" s="5">
-        <v>155.98</v>
+        <v>152.98</v>
       </c>
       <c r="C101" s="5">
-        <v>156.72</v>
+        <v>157.6</v>
       </c>
       <c r="D101" s="5">
-        <v>154.0</v>
+        <v>152.97</v>
       </c>
       <c r="E101" s="5">
-        <v>155.02</v>
+        <v>157.25</v>
       </c>
       <c r="F101" s="5">
-        <v>155.01</v>
+        <v>157.24</v>
       </c>
       <c r="G101" s="6">
-        <v>1.981457E8</v>
+        <v>1.712241E8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>45833.0</v>
+        <v>45839.0</v>
       </c>
       <c r="B102" s="2">
-        <v>149.27</v>
+        <v>156.29</v>
       </c>
       <c r="C102" s="2">
-        <v>154.45</v>
+        <v>157.2</v>
       </c>
       <c r="D102" s="2">
-        <v>149.26</v>
+        <v>151.49</v>
       </c>
       <c r="E102" s="2">
-        <v>154.31</v>
+        <v>153.3</v>
       </c>
       <c r="F102" s="2">
-        <v>154.3</v>
+        <v>153.29</v>
       </c>
       <c r="G102" s="3">
-        <v>2.691465E8</v>
+        <v>2.131436E8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4">
-        <v>45832.0</v>
+        <v>45838.0</v>
       </c>
       <c r="B103" s="5">
-        <v>145.56</v>
+        <v>158.4</v>
       </c>
       <c r="C103" s="5">
-        <v>147.96</v>
+        <v>158.66</v>
       </c>
       <c r="D103" s="5">
-        <v>145.5</v>
+        <v>155.96</v>
       </c>
       <c r="E103" s="5">
-        <v>147.9</v>
+        <v>157.99</v>
       </c>
       <c r="F103" s="5">
-        <v>147.89</v>
+        <v>157.98</v>
       </c>
       <c r="G103" s="6">
-        <v>1.875661E8</v>
+        <v>1.945803E8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>45831.0</v>
+        <v>45835.0</v>
       </c>
       <c r="B104" s="2">
-        <v>142.5</v>
+        <v>156.04</v>
       </c>
       <c r="C104" s="2">
-        <v>144.78</v>
+        <v>158.71</v>
       </c>
       <c r="D104" s="2">
-        <v>142.03</v>
+        <v>155.26</v>
       </c>
       <c r="E104" s="2">
-        <v>144.17</v>
+        <v>157.75</v>
       </c>
       <c r="F104" s="2">
-        <v>144.16</v>
+        <v>157.74</v>
       </c>
       <c r="G104" s="3">
-        <v>1.543089E8</v>
+        <v>2.632345E8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4">
-        <v>45828.0</v>
+        <v>45834.0</v>
       </c>
       <c r="B105" s="5">
-        <v>145.45</v>
+        <v>155.98</v>
       </c>
       <c r="C105" s="5">
-        <v>146.2</v>
+        <v>156.72</v>
       </c>
       <c r="D105" s="5">
-        <v>142.65</v>
+        <v>154.0</v>
       </c>
       <c r="E105" s="5">
-        <v>143.85</v>
+        <v>155.02</v>
       </c>
       <c r="F105" s="5">
-        <v>143.84</v>
+        <v>155.01</v>
       </c>
       <c r="G105" s="6">
-        <v>2.429562E8</v>
+        <v>1.981457E8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>45826.0</v>
+        <v>45833.0</v>
       </c>
       <c r="B106" s="2">
-        <v>144.01</v>
+        <v>149.27</v>
       </c>
       <c r="C106" s="2">
-        <v>145.65</v>
+        <v>154.45</v>
       </c>
       <c r="D106" s="2">
-        <v>143.12</v>
+        <v>149.26</v>
       </c>
       <c r="E106" s="2">
-        <v>145.48</v>
+        <v>154.31</v>
       </c>
       <c r="F106" s="2">
-        <v>145.47</v>
+        <v>154.3</v>
       </c>
       <c r="G106" s="3">
-        <v>1.614941E8</v>
+        <v>2.691465E8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4">
-        <v>45825.0</v>
+        <v>45832.0</v>
       </c>
       <c r="B107" s="5">
-        <v>144.49</v>
+        <v>145.56</v>
       </c>
       <c r="C107" s="5">
-        <v>145.22</v>
+        <v>147.96</v>
       </c>
       <c r="D107" s="5">
-        <v>143.78</v>
+        <v>145.5</v>
       </c>
       <c r="E107" s="5">
-        <v>144.12</v>
+        <v>147.9</v>
       </c>
       <c r="F107" s="5">
-        <v>144.11</v>
+        <v>147.89</v>
       </c>
       <c r="G107" s="6">
-        <v>1.39108E8</v>
+        <v>1.875661E8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>45824.0</v>
+        <v>45831.0</v>
       </c>
       <c r="B108" s="2">
-        <v>143.35</v>
+        <v>142.5</v>
       </c>
       <c r="C108" s="2">
-        <v>146.18</v>
+        <v>144.78</v>
       </c>
       <c r="D108" s="2">
-        <v>143.2</v>
+        <v>142.03</v>
       </c>
       <c r="E108" s="2">
-        <v>144.69</v>
+        <v>144.17</v>
       </c>
       <c r="F108" s="2">
-        <v>144.68</v>
+        <v>144.16</v>
       </c>
       <c r="G108" s="3">
-        <v>1.831337E8</v>
+        <v>1.543089E8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4">
-        <v>45821.0</v>
+        <v>45828.0</v>
       </c>
       <c r="B109" s="5">
-        <v>142.48</v>
+        <v>145.45</v>
       </c>
       <c r="C109" s="5">
-        <v>143.58</v>
+        <v>146.2</v>
       </c>
       <c r="D109" s="5">
-        <v>140.85</v>
+        <v>142.65</v>
       </c>
       <c r="E109" s="5">
-        <v>141.97</v>
+        <v>143.85</v>
       </c>
       <c r="F109" s="5">
-        <v>141.96</v>
+        <v>143.84</v>
       </c>
       <c r="G109" s="6">
-        <v>1.808206E8</v>
+        <v>2.429562E8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
+        <v>45826.0</v>
+      </c>
+      <c r="B110" s="2">
+        <v>144.01</v>
+      </c>
+      <c r="C110" s="2">
+        <v>145.65</v>
+      </c>
+      <c r="D110" s="2">
+        <v>143.12</v>
+      </c>
+      <c r="E110" s="2">
+        <v>145.48</v>
+      </c>
+      <c r="F110" s="2">
+        <v>145.47</v>
+      </c>
+      <c r="G110" s="3">
+        <v>1.614941E8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4">
+        <v>45825.0</v>
+      </c>
+      <c r="B111" s="5">
+        <v>144.49</v>
+      </c>
+      <c r="C111" s="5">
+        <v>145.22</v>
+      </c>
+      <c r="D111" s="5">
+        <v>143.78</v>
+      </c>
+      <c r="E111" s="5">
+        <v>144.12</v>
+      </c>
+      <c r="F111" s="5">
+        <v>144.11</v>
+      </c>
+      <c r="G111" s="6">
+        <v>1.39108E8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>45824.0</v>
+      </c>
+      <c r="B112" s="2">
+        <v>143.35</v>
+      </c>
+      <c r="C112" s="2">
+        <v>146.18</v>
+      </c>
+      <c r="D112" s="2">
+        <v>143.2</v>
+      </c>
+      <c r="E112" s="2">
+        <v>144.69</v>
+      </c>
+      <c r="F112" s="2">
+        <v>144.68</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1.831337E8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4">
+        <v>45821.0</v>
+      </c>
+      <c r="B113" s="5">
+        <v>142.48</v>
+      </c>
+      <c r="C113" s="5">
+        <v>143.58</v>
+      </c>
+      <c r="D113" s="5">
+        <v>140.85</v>
+      </c>
+      <c r="E113" s="5">
+        <v>141.97</v>
+      </c>
+      <c r="F113" s="5">
+        <v>141.96</v>
+      </c>
+      <c r="G113" s="6">
+        <v>1.808206E8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
         <v>45820.0</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B114" s="2">
         <v>141.97</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C114" s="2">
         <v>145.0</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D114" s="2">
         <v>141.85</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E114" s="2">
         <v>145.0</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F114" s="2">
         <v>144.99</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G114" s="3">
         <v>1.62365E8</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>45819.0</v>
-      </c>
-      <c r="B111" s="2">
-        <v>144.61</v>
-      </c>
-      <c r="C111" s="2">
-        <v>144.99</v>
-      </c>
-      <c r="D111" s="2">
-        <v>141.87</v>
-      </c>
-      <c r="E111" s="2">
-        <v>142.83</v>
-      </c>
-      <c r="F111" s="2">
-        <v>142.82</v>
-      </c>
-      <c r="G111" s="3">
-        <v>1.67694E8</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="4">
-        <v>45818.0</v>
-      </c>
-      <c r="B112" s="5">
-        <v>142.69</v>
-      </c>
-      <c r="C112" s="5">
-        <v>144.29</v>
-      </c>
-      <c r="D112" s="5">
-        <v>141.53</v>
-      </c>
-      <c r="E112" s="5">
-        <v>143.96</v>
-      </c>
-      <c r="F112" s="5">
-        <v>143.94</v>
-      </c>
-      <c r="G112" s="6">
-        <v>1.558819E8</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>45817.0</v>
-      </c>
-      <c r="B113" s="2">
-        <v>143.19</v>
-      </c>
-      <c r="C113" s="2">
-        <v>145.0</v>
-      </c>
-      <c r="D113" s="2">
-        <v>141.94</v>
-      </c>
-      <c r="E113" s="2">
-        <v>142.63</v>
-      </c>
-      <c r="F113" s="2">
-        <v>142.61</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1.851145E8</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="4">
-        <v>45814.0</v>
-      </c>
-      <c r="B114" s="5">
-        <v>142.51</v>
-      </c>
-      <c r="C114" s="5">
-        <v>143.27</v>
-      </c>
-      <c r="D114" s="5">
-        <v>141.51</v>
-      </c>
-      <c r="E114" s="5">
-        <v>141.72</v>
-      </c>
-      <c r="F114" s="5">
-        <v>141.7</v>
-      </c>
-      <c r="G114" s="6">
-        <v>1.539862E8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>45813.0</v>
+        <v>45819.0</v>
       </c>
       <c r="B115" s="2">
-        <v>142.17</v>
+        <v>144.61</v>
       </c>
       <c r="C115" s="2">
-        <v>144.0</v>
+        <v>144.99</v>
       </c>
       <c r="D115" s="2">
-        <v>138.83</v>
+        <v>141.87</v>
       </c>
       <c r="E115" s="2">
-        <v>139.99</v>
+        <v>142.83</v>
       </c>
       <c r="F115" s="2">
-        <v>139.97</v>
+        <v>142.82</v>
       </c>
       <c r="G115" s="3">
-        <v>2.313979E8</v>
+        <v>1.67694E8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4">
-        <v>45812.0</v>
+        <v>45818.0</v>
       </c>
       <c r="B116" s="5">
-        <v>142.19</v>
+        <v>142.69</v>
       </c>
       <c r="C116" s="5">
-        <v>142.39</v>
+        <v>144.29</v>
       </c>
       <c r="D116" s="5">
-        <v>139.54</v>
+        <v>141.53</v>
       </c>
       <c r="E116" s="5">
-        <v>141.92</v>
+        <v>143.96</v>
       </c>
       <c r="F116" s="5">
-        <v>141.9</v>
+        <v>143.94</v>
       </c>
       <c r="G116" s="6">
-        <v>1.671208E8</v>
+        <v>1.558819E8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>45811.0</v>
+        <v>45817.0</v>
       </c>
       <c r="B117" s="2">
-        <v>138.78</v>
+        <v>143.19</v>
       </c>
       <c r="C117" s="2">
-        <v>142.0</v>
+        <v>145.0</v>
       </c>
       <c r="D117" s="2">
-        <v>137.95</v>
+        <v>141.94</v>
       </c>
       <c r="E117" s="2">
-        <v>141.22</v>
+        <v>142.63</v>
       </c>
       <c r="F117" s="2">
-        <v>141.2</v>
+        <v>142.61</v>
       </c>
       <c r="G117" s="3">
-        <v>2.255788E8</v>
+        <v>1.851145E8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4">
+        <v>45814.0</v>
+      </c>
+      <c r="B118" s="5">
+        <v>142.51</v>
+      </c>
+      <c r="C118" s="5">
+        <v>143.27</v>
+      </c>
+      <c r="D118" s="5">
+        <v>141.51</v>
+      </c>
+      <c r="E118" s="5">
+        <v>141.72</v>
+      </c>
+      <c r="F118" s="5">
+        <v>141.7</v>
+      </c>
+      <c r="G118" s="6">
+        <v>1.539862E8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>45813.0</v>
+      </c>
+      <c r="B119" s="2">
+        <v>142.17</v>
+      </c>
+      <c r="C119" s="2">
+        <v>144.0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>138.83</v>
+      </c>
+      <c r="E119" s="2">
+        <v>139.99</v>
+      </c>
+      <c r="F119" s="2">
+        <v>139.97</v>
+      </c>
+      <c r="G119" s="3">
+        <v>2.313979E8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4">
+        <v>45812.0</v>
+      </c>
+      <c r="B120" s="5">
+        <v>142.19</v>
+      </c>
+      <c r="C120" s="5">
+        <v>142.39</v>
+      </c>
+      <c r="D120" s="5">
+        <v>139.54</v>
+      </c>
+      <c r="E120" s="5">
+        <v>141.92</v>
+      </c>
+      <c r="F120" s="5">
+        <v>141.9</v>
+      </c>
+      <c r="G120" s="6">
+        <v>1.671208E8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>45811.0</v>
+      </c>
+      <c r="B121" s="2">
+        <v>138.78</v>
+      </c>
+      <c r="C121" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>137.95</v>
+      </c>
+      <c r="E121" s="2">
+        <v>141.22</v>
+      </c>
+      <c r="F121" s="2">
+        <v>141.2</v>
+      </c>
+      <c r="G121" s="3">
+        <v>2.255788E8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4">
         <v>45810.0</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B122" s="5">
         <v>135.49</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C122" s="5">
         <v>138.12</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D122" s="5">
         <v>135.4</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E122" s="5">
         <v>137.38</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F122" s="5">
         <v>137.36</v>
       </c>
-      <c r="G118" s="6">
+      <c r="G122" s="6">
         <v>1.976631E8</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="7">
-        <v>45807.0</v>
-      </c>
-      <c r="B119" s="2">
-        <v>138.72</v>
-      </c>
-      <c r="C119" s="2">
-        <v>139.62</v>
-      </c>
-      <c r="D119" s="2">
-        <v>132.92</v>
-      </c>
-      <c r="E119" s="2">
-        <v>135.13</v>
-      </c>
-      <c r="F119" s="2">
-        <v>135.11</v>
-      </c>
-      <c r="G119" s="3">
-        <v>3.331709E8</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="8">
-        <v>45806.0</v>
-      </c>
-      <c r="B120" s="5">
-        <v>142.25</v>
-      </c>
-      <c r="C120" s="5">
-        <v>143.49</v>
-      </c>
-      <c r="D120" s="5">
-        <v>137.91</v>
-      </c>
-      <c r="E120" s="5">
-        <v>139.19</v>
-      </c>
-      <c r="F120" s="5">
-        <v>139.17</v>
-      </c>
-      <c r="G120" s="6">
-        <v>3.692419E8</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="7">
-        <v>45805.0</v>
-      </c>
-      <c r="B121" s="2">
-        <v>136.03</v>
-      </c>
-      <c r="C121" s="2">
-        <v>137.25</v>
-      </c>
-      <c r="D121" s="2">
-        <v>134.79</v>
-      </c>
-      <c r="E121" s="2">
-        <v>134.81</v>
-      </c>
-      <c r="F121" s="2">
-        <v>134.79</v>
-      </c>
-      <c r="G121" s="3">
-        <v>3.040211E8</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="8">
-        <v>45804.0</v>
-      </c>
-      <c r="B122" s="5">
-        <v>134.15</v>
-      </c>
-      <c r="C122" s="5">
-        <v>135.66</v>
-      </c>
-      <c r="D122" s="5">
-        <v>133.31</v>
-      </c>
-      <c r="E122" s="5">
-        <v>135.5</v>
-      </c>
-      <c r="F122" s="5">
-        <v>135.48</v>
-      </c>
-      <c r="G122" s="6">
-        <v>1.929536E8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7">
-        <v>45800.0</v>
+        <v>45807.0</v>
       </c>
       <c r="B123" s="2">
-        <v>130.0</v>
+        <v>138.72</v>
       </c>
       <c r="C123" s="2">
-        <v>132.68</v>
+        <v>139.62</v>
       </c>
       <c r="D123" s="2">
-        <v>129.16</v>
+        <v>132.92</v>
       </c>
       <c r="E123" s="2">
-        <v>131.29</v>
+        <v>135.13</v>
       </c>
       <c r="F123" s="2">
-        <v>131.27</v>
+        <v>135.11</v>
       </c>
       <c r="G123" s="3">
-        <v>1.988213E8</v>
+        <v>3.331709E8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="8">
-        <v>45799.0</v>
+        <v>45806.0</v>
       </c>
       <c r="B124" s="5">
-        <v>132.23</v>
+        <v>142.25</v>
       </c>
       <c r="C124" s="5">
-        <v>134.25</v>
+        <v>143.49</v>
       </c>
       <c r="D124" s="5">
-        <v>131.55</v>
+        <v>137.91</v>
       </c>
       <c r="E124" s="5">
-        <v>132.83</v>
+        <v>139.19</v>
       </c>
       <c r="F124" s="5">
-        <v>132.81</v>
+        <v>139.17</v>
       </c>
       <c r="G124" s="6">
-        <v>1.87344E8</v>
+        <v>3.692419E8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7">
-        <v>45798.0</v>
+        <v>45805.0</v>
       </c>
       <c r="B125" s="2">
-        <v>133.06</v>
+        <v>136.03</v>
       </c>
       <c r="C125" s="2">
-        <v>137.4</v>
+        <v>137.25</v>
       </c>
       <c r="D125" s="2">
-        <v>130.59</v>
+        <v>134.79</v>
       </c>
       <c r="E125" s="2">
-        <v>131.8</v>
+        <v>134.81</v>
       </c>
       <c r="F125" s="2">
-        <v>131.78</v>
+        <v>134.79</v>
       </c>
       <c r="G125" s="3">
-        <v>2.706087E8</v>
+        <v>3.040211E8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="8">
-        <v>45797.0</v>
+        <v>45804.0</v>
       </c>
       <c r="B126" s="5">
-        <v>134.29</v>
+        <v>134.15</v>
       </c>
       <c r="C126" s="5">
-        <v>134.58</v>
+        <v>135.66</v>
       </c>
       <c r="D126" s="5">
-        <v>132.62</v>
+        <v>133.31</v>
       </c>
       <c r="E126" s="5">
-        <v>134.38</v>
+        <v>135.5</v>
       </c>
       <c r="F126" s="5">
-        <v>134.36</v>
+        <v>135.48</v>
       </c>
       <c r="G126" s="6">
-        <v>1.615142E8</v>
+        <v>1.929536E8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="7">
-        <v>45796.0</v>
+        <v>45800.0</v>
       </c>
       <c r="B127" s="2">
-        <v>132.39</v>
+        <v>130.0</v>
       </c>
       <c r="C127" s="2">
-        <v>135.87</v>
+        <v>132.68</v>
       </c>
       <c r="D127" s="2">
-        <v>132.39</v>
+        <v>129.16</v>
       </c>
       <c r="E127" s="2">
-        <v>135.57</v>
+        <v>131.29</v>
       </c>
       <c r="F127" s="2">
-        <v>135.55</v>
+        <v>131.27</v>
       </c>
       <c r="G127" s="3">
-        <v>1.931546E8</v>
+        <v>1.988213E8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="8">
-        <v>45793.0</v>
+        <v>45799.0</v>
       </c>
       <c r="B128" s="5">
-        <v>136.22</v>
+        <v>132.23</v>
       </c>
       <c r="C128" s="5">
-        <v>136.35</v>
+        <v>134.25</v>
       </c>
       <c r="D128" s="5">
-        <v>133.46</v>
+        <v>131.55</v>
       </c>
       <c r="E128" s="5">
-        <v>135.4</v>
+        <v>132.83</v>
       </c>
       <c r="F128" s="5">
-        <v>135.38</v>
+        <v>132.81</v>
       </c>
       <c r="G128" s="6">
-        <v>2.265425E8</v>
+        <v>1.87344E8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7">
-        <v>45792.0</v>
+        <v>45798.0</v>
       </c>
       <c r="B129" s="2">
-        <v>134.29</v>
+        <v>133.06</v>
       </c>
       <c r="C129" s="2">
-        <v>136.3</v>
+        <v>137.4</v>
       </c>
       <c r="D129" s="2">
-        <v>132.66</v>
+        <v>130.59</v>
       </c>
       <c r="E129" s="2">
-        <v>134.83</v>
+        <v>131.8</v>
       </c>
       <c r="F129" s="2">
-        <v>134.81</v>
+        <v>131.78</v>
       </c>
       <c r="G129" s="3">
-        <v>2.266326E8</v>
+        <v>2.706087E8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="8">
-        <v>45791.0</v>
+        <v>45797.0</v>
       </c>
       <c r="B130" s="5">
-        <v>133.2</v>
+        <v>134.29</v>
       </c>
       <c r="C130" s="5">
-        <v>135.44</v>
+        <v>134.58</v>
       </c>
       <c r="D130" s="5">
-        <v>131.68</v>
+        <v>132.62</v>
       </c>
       <c r="E130" s="5">
-        <v>135.34</v>
+        <v>134.38</v>
       </c>
       <c r="F130" s="5">
-        <v>135.32</v>
+        <v>134.36</v>
       </c>
       <c r="G130" s="6">
-        <v>2.811808E8</v>
+        <v>1.615142E8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="7">
-        <v>45790.0</v>
+        <v>45796.0</v>
       </c>
       <c r="B131" s="2">
-        <v>124.98</v>
+        <v>132.39</v>
       </c>
       <c r="C131" s="2">
-        <v>131.22</v>
+        <v>135.87</v>
       </c>
       <c r="D131" s="2">
-        <v>124.47</v>
+        <v>132.39</v>
       </c>
       <c r="E131" s="2">
-        <v>129.93</v>
+        <v>135.57</v>
       </c>
       <c r="F131" s="2">
-        <v>129.91</v>
+        <v>135.55</v>
       </c>
       <c r="G131" s="3">
-        <v>3.304301E8</v>
+        <v>1.931546E8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="8">
-        <v>45789.0</v>
+        <v>45793.0</v>
       </c>
       <c r="B132" s="5">
-        <v>121.97</v>
+        <v>136.22</v>
       </c>
       <c r="C132" s="5">
-        <v>123.0</v>
+        <v>136.35</v>
       </c>
       <c r="D132" s="5">
-        <v>120.28</v>
+        <v>133.46</v>
       </c>
       <c r="E132" s="5">
-        <v>123.0</v>
+        <v>135.4</v>
       </c>
       <c r="F132" s="5">
-        <v>122.98</v>
+        <v>135.38</v>
       </c>
       <c r="G132" s="6">
-        <v>2.250233E8</v>
+        <v>2.265425E8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7">
-        <v>45786.0</v>
+        <v>45792.0</v>
       </c>
       <c r="B133" s="2">
-        <v>117.35</v>
+        <v>134.29</v>
       </c>
       <c r="C133" s="2">
-        <v>118.23</v>
+        <v>136.3</v>
       </c>
       <c r="D133" s="2">
-        <v>115.21</v>
+        <v>132.66</v>
       </c>
       <c r="E133" s="2">
-        <v>116.65</v>
+        <v>134.83</v>
       </c>
       <c r="F133" s="2">
-        <v>116.64</v>
+        <v>134.81</v>
       </c>
       <c r="G133" s="3">
-        <v>1.329722E8</v>
+        <v>2.266326E8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="8">
-        <v>45785.0</v>
+        <v>45791.0</v>
       </c>
       <c r="B134" s="5">
-        <v>118.25</v>
+        <v>133.2</v>
       </c>
       <c r="C134" s="5">
-        <v>118.68</v>
+        <v>135.44</v>
       </c>
       <c r="D134" s="5">
-        <v>115.85</v>
+        <v>131.68</v>
       </c>
       <c r="E134" s="5">
-        <v>117.37</v>
+        <v>135.34</v>
       </c>
       <c r="F134" s="5">
-        <v>117.36</v>
+        <v>135.32</v>
       </c>
       <c r="G134" s="6">
-        <v>1.984281E8</v>
+        <v>2.811808E8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7">
-        <v>45784.0</v>
+        <v>45790.0</v>
       </c>
       <c r="B135" s="2">
-        <v>113.05</v>
+        <v>124.98</v>
       </c>
       <c r="C135" s="2">
-        <v>117.68</v>
+        <v>131.22</v>
       </c>
       <c r="D135" s="2">
-        <v>112.28</v>
+        <v>124.47</v>
       </c>
       <c r="E135" s="2">
-        <v>117.06</v>
+        <v>129.93</v>
       </c>
       <c r="F135" s="2">
-        <v>117.05</v>
+        <v>129.91</v>
       </c>
       <c r="G135" s="3">
-        <v>2.067588E8</v>
+        <v>3.304301E8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="8">
-        <v>45783.0</v>
+        <v>45789.0</v>
       </c>
       <c r="B136" s="5">
-        <v>111.48</v>
+        <v>121.97</v>
       </c>
       <c r="C136" s="5">
-        <v>114.74</v>
+        <v>123.0</v>
       </c>
       <c r="D136" s="5">
-        <v>110.82</v>
+        <v>120.28</v>
       </c>
       <c r="E136" s="5">
-        <v>113.54</v>
+        <v>123.0</v>
       </c>
       <c r="F136" s="5">
-        <v>113.53</v>
+        <v>122.98</v>
       </c>
       <c r="G136" s="6">
-        <v>1.585256E8</v>
+        <v>2.250233E8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7">
-        <v>45782.0</v>
+        <v>45786.0</v>
       </c>
       <c r="B137" s="2">
-        <v>112.91</v>
+        <v>117.35</v>
       </c>
       <c r="C137" s="2">
-        <v>114.67</v>
+        <v>118.23</v>
       </c>
       <c r="D137" s="2">
-        <v>112.66</v>
+        <v>115.21</v>
       </c>
       <c r="E137" s="2">
-        <v>113.82</v>
+        <v>116.65</v>
       </c>
       <c r="F137" s="2">
-        <v>113.81</v>
+        <v>116.64</v>
       </c>
       <c r="G137" s="3">
-        <v>1.331632E8</v>
+        <v>1.329722E8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="8">
-        <v>45779.0</v>
+        <v>45785.0</v>
       </c>
       <c r="B138" s="5">
-        <v>114.18</v>
+        <v>118.25</v>
       </c>
       <c r="C138" s="5">
-        <v>115.4</v>
+        <v>118.68</v>
       </c>
       <c r="D138" s="5">
-        <v>113.37</v>
+        <v>115.85</v>
       </c>
       <c r="E138" s="5">
-        <v>114.5</v>
+        <v>117.37</v>
       </c>
       <c r="F138" s="5">
-        <v>114.49</v>
+        <v>117.36</v>
       </c>
       <c r="G138" s="6">
-        <v>1.901948E8</v>
+        <v>1.984281E8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7">
+        <v>45784.0</v>
+      </c>
+      <c r="B139" s="2">
+        <v>113.05</v>
+      </c>
+      <c r="C139" s="2">
+        <v>117.68</v>
+      </c>
+      <c r="D139" s="2">
+        <v>112.28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>117.06</v>
+      </c>
+      <c r="F139" s="2">
+        <v>117.05</v>
+      </c>
+      <c r="G139" s="3">
+        <v>2.067588E8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="8">
+        <v>45783.0</v>
+      </c>
+      <c r="B140" s="5">
+        <v>111.48</v>
+      </c>
+      <c r="C140" s="5">
+        <v>114.74</v>
+      </c>
+      <c r="D140" s="5">
+        <v>110.82</v>
+      </c>
+      <c r="E140" s="5">
+        <v>113.54</v>
+      </c>
+      <c r="F140" s="5">
+        <v>113.53</v>
+      </c>
+      <c r="G140" s="6">
+        <v>1.585256E8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7">
+        <v>45782.0</v>
+      </c>
+      <c r="B141" s="2">
+        <v>112.91</v>
+      </c>
+      <c r="C141" s="2">
+        <v>114.67</v>
+      </c>
+      <c r="D141" s="2">
+        <v>112.66</v>
+      </c>
+      <c r="E141" s="2">
+        <v>113.82</v>
+      </c>
+      <c r="F141" s="2">
+        <v>113.81</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1.331632E8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="8">
+        <v>45779.0</v>
+      </c>
+      <c r="B142" s="5">
+        <v>114.18</v>
+      </c>
+      <c r="C142" s="5">
+        <v>115.4</v>
+      </c>
+      <c r="D142" s="5">
+        <v>113.37</v>
+      </c>
+      <c r="E142" s="5">
+        <v>114.5</v>
+      </c>
+      <c r="F142" s="5">
+        <v>114.49</v>
+      </c>
+      <c r="G142" s="6">
+        <v>1.901948E8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7">
         <v>45778.0</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B143" s="2">
         <v>113.08</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C143" s="2">
         <v>114.94</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D143" s="2">
         <v>111.3</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E143" s="2">
         <v>111.61</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F143" s="2">
         <v>111.6</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G143" s="3">
         <v>2.361215E8</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="4">
-        <v>45777.0</v>
-      </c>
-      <c r="B140" s="5">
-        <v>104.47</v>
-      </c>
-      <c r="C140" s="5">
-        <v>108.92</v>
-      </c>
-      <c r="D140" s="5">
-        <v>104.08</v>
-      </c>
-      <c r="E140" s="5">
-        <v>108.92</v>
-      </c>
-      <c r="F140" s="5">
-        <v>108.91</v>
-      </c>
-      <c r="G140" s="6">
-        <v>2.350446E8</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>45776.0</v>
-      </c>
-      <c r="B141" s="2">
-        <v>107.67</v>
-      </c>
-      <c r="C141" s="2">
-        <v>110.2</v>
-      </c>
-      <c r="D141" s="2">
-        <v>107.44</v>
-      </c>
-      <c r="E141" s="2">
-        <v>109.02</v>
-      </c>
-      <c r="F141" s="2">
-        <v>109.01</v>
-      </c>
-      <c r="G141" s="3">
-        <v>1.704443E8</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="4">
-        <v>45775.0</v>
-      </c>
-      <c r="B142" s="5">
-        <v>109.69</v>
-      </c>
-      <c r="C142" s="5">
-        <v>110.37</v>
-      </c>
-      <c r="D142" s="5">
-        <v>106.02</v>
-      </c>
-      <c r="E142" s="5">
-        <v>108.73</v>
-      </c>
-      <c r="F142" s="5">
-        <v>108.72</v>
-      </c>
-      <c r="G142" s="6">
-        <v>2.077085E8</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>45772.0</v>
-      </c>
-      <c r="B143" s="2">
-        <v>106.85</v>
-      </c>
-      <c r="C143" s="2">
-        <v>111.92</v>
-      </c>
-      <c r="D143" s="2">
-        <v>105.73</v>
-      </c>
-      <c r="E143" s="2">
-        <v>111.01</v>
-      </c>
-      <c r="F143" s="2">
-        <v>111.0</v>
-      </c>
-      <c r="G143" s="3">
-        <v>2.510647E8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="4">
-        <v>45771.0</v>
+        <v>45777.0</v>
       </c>
       <c r="B144" s="5">
-        <v>103.48</v>
+        <v>104.47</v>
       </c>
       <c r="C144" s="5">
-        <v>106.54</v>
+        <v>108.92</v>
       </c>
       <c r="D144" s="5">
-        <v>103.11</v>
+        <v>104.08</v>
       </c>
       <c r="E144" s="5">
-        <v>106.43</v>
+        <v>108.92</v>
       </c>
       <c r="F144" s="5">
-        <v>106.42</v>
+        <v>108.91</v>
       </c>
       <c r="G144" s="6">
-        <v>2.20815E8</v>
+        <v>2.350446E8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>45770.0</v>
+        <v>45776.0</v>
       </c>
       <c r="B145" s="2">
-        <v>104.52</v>
+        <v>107.67</v>
       </c>
       <c r="C145" s="2">
-        <v>104.8</v>
+        <v>110.2</v>
       </c>
       <c r="D145" s="2">
-        <v>102.02</v>
+        <v>107.44</v>
       </c>
       <c r="E145" s="2">
-        <v>102.71</v>
+        <v>109.02</v>
       </c>
       <c r="F145" s="2">
-        <v>102.7</v>
+        <v>109.01</v>
       </c>
       <c r="G145" s="3">
-        <v>2.47526E8</v>
+        <v>1.704443E8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="4">
-        <v>45769.0</v>
+        <v>45775.0</v>
       </c>
       <c r="B146" s="5">
-        <v>98.78</v>
+        <v>109.69</v>
       </c>
       <c r="C146" s="5">
-        <v>99.81</v>
+        <v>110.37</v>
       </c>
       <c r="D146" s="5">
-        <v>97.28</v>
+        <v>106.02</v>
       </c>
       <c r="E146" s="5">
-        <v>98.89</v>
+        <v>108.73</v>
       </c>
       <c r="F146" s="5">
-        <v>98.88</v>
+        <v>108.72</v>
       </c>
       <c r="G146" s="6">
-        <v>2.410048E8</v>
+        <v>2.077085E8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>45768.0</v>
+        <v>45772.0</v>
       </c>
       <c r="B147" s="2">
-        <v>98.77</v>
+        <v>106.85</v>
       </c>
       <c r="C147" s="2">
-        <v>99.44</v>
+        <v>111.92</v>
       </c>
       <c r="D147" s="2">
-        <v>95.04</v>
+        <v>105.73</v>
       </c>
       <c r="E147" s="2">
-        <v>96.91</v>
+        <v>111.01</v>
       </c>
       <c r="F147" s="2">
-        <v>96.9</v>
+        <v>111.0</v>
       </c>
       <c r="G147" s="3">
-        <v>2.885011E8</v>
+        <v>2.510647E8</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="4">
-        <v>45764.0</v>
+        <v>45771.0</v>
       </c>
       <c r="B148" s="5">
-        <v>104.45</v>
+        <v>103.48</v>
       </c>
       <c r="C148" s="5">
-        <v>104.47</v>
+        <v>106.54</v>
       </c>
       <c r="D148" s="5">
-        <v>100.05</v>
+        <v>103.11</v>
       </c>
       <c r="E148" s="5">
-        <v>101.49</v>
+        <v>106.43</v>
       </c>
       <c r="F148" s="5">
-        <v>101.48</v>
+        <v>106.42</v>
       </c>
       <c r="G148" s="6">
-        <v>2.925175E8</v>
+        <v>2.20815E8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>45763.0</v>
+        <v>45770.0</v>
       </c>
       <c r="B149" s="2">
-        <v>104.55</v>
+        <v>104.52</v>
       </c>
       <c r="C149" s="2">
-        <v>106.79</v>
+        <v>104.8</v>
       </c>
       <c r="D149" s="2">
-        <v>100.45</v>
+        <v>102.02</v>
       </c>
       <c r="E149" s="2">
-        <v>104.49</v>
+        <v>102.71</v>
       </c>
       <c r="F149" s="2">
-        <v>104.48</v>
+        <v>102.7</v>
       </c>
       <c r="G149" s="3">
-        <v>3.970169E8</v>
+        <v>2.47526E8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="4">
-        <v>45762.0</v>
+        <v>45769.0</v>
       </c>
       <c r="B150" s="5">
-        <v>110.97</v>
+        <v>98.78</v>
       </c>
       <c r="C150" s="5">
-        <v>113.62</v>
+        <v>99.81</v>
       </c>
       <c r="D150" s="5">
-        <v>110.5</v>
+        <v>97.28</v>
       </c>
       <c r="E150" s="5">
-        <v>112.2</v>
+        <v>98.89</v>
       </c>
       <c r="F150" s="5">
-        <v>112.19</v>
+        <v>98.88</v>
       </c>
       <c r="G150" s="6">
-        <v>2.289669E8</v>
+        <v>2.410048E8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>45761.0</v>
+        <v>45768.0</v>
       </c>
       <c r="B151" s="2">
-        <v>114.11</v>
+        <v>98.77</v>
       </c>
       <c r="C151" s="2">
-        <v>114.29</v>
+        <v>99.44</v>
       </c>
       <c r="D151" s="2">
-        <v>109.07</v>
+        <v>95.04</v>
       </c>
       <c r="E151" s="2">
-        <v>110.71</v>
+        <v>96.91</v>
       </c>
       <c r="F151" s="2">
-        <v>110.7</v>
+        <v>96.9</v>
       </c>
       <c r="G151" s="3">
-        <v>2.64705E8</v>
+        <v>2.885011E8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="4">
-        <v>45758.0</v>
+        <v>45764.0</v>
       </c>
       <c r="B152" s="5">
-        <v>108.5</v>
+        <v>104.45</v>
       </c>
       <c r="C152" s="5">
-        <v>111.55</v>
+        <v>104.47</v>
       </c>
       <c r="D152" s="5">
-        <v>107.48</v>
+        <v>100.05</v>
       </c>
       <c r="E152" s="5">
-        <v>110.93</v>
+        <v>101.49</v>
       </c>
       <c r="F152" s="5">
-        <v>110.92</v>
+        <v>101.48</v>
       </c>
       <c r="G152" s="6">
-        <v>3.134173E8</v>
+        <v>2.925175E8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>45757.0</v>
+        <v>45763.0</v>
       </c>
       <c r="B153" s="2">
-        <v>109.37</v>
+        <v>104.55</v>
       </c>
       <c r="C153" s="2">
-        <v>110.86</v>
+        <v>106.79</v>
       </c>
       <c r="D153" s="2">
-        <v>99.15</v>
+        <v>100.45</v>
       </c>
       <c r="E153" s="2">
-        <v>107.57</v>
+        <v>104.49</v>
       </c>
       <c r="F153" s="2">
-        <v>107.56</v>
+        <v>104.48</v>
       </c>
       <c r="G153" s="3">
-        <v>4.378124E8</v>
+        <v>3.970169E8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="4">
-        <v>45756.0</v>
+        <v>45762.0</v>
       </c>
       <c r="B154" s="5">
-        <v>98.89</v>
+        <v>110.97</v>
       </c>
       <c r="C154" s="5">
-        <v>115.1</v>
+        <v>113.62</v>
       </c>
       <c r="D154" s="5">
-        <v>97.53</v>
+        <v>110.5</v>
       </c>
       <c r="E154" s="5">
-        <v>114.33</v>
+        <v>112.2</v>
       </c>
       <c r="F154" s="5">
-        <v>114.32</v>
+        <v>112.19</v>
       </c>
       <c r="G154" s="6">
-        <v>6.129183E8</v>
+        <v>2.289669E8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>45755.0</v>
+        <v>45761.0</v>
       </c>
       <c r="B155" s="2">
-        <v>103.81</v>
+        <v>114.11</v>
       </c>
       <c r="C155" s="2">
-        <v>105.85</v>
+        <v>114.29</v>
       </c>
       <c r="D155" s="2">
-        <v>94.46</v>
+        <v>109.07</v>
       </c>
       <c r="E155" s="2">
-        <v>96.3</v>
+        <v>110.71</v>
       </c>
       <c r="F155" s="2">
-        <v>96.29</v>
+        <v>110.7</v>
       </c>
       <c r="G155" s="3">
-        <v>4.762434E8</v>
+        <v>2.64705E8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="4">
-        <v>45754.0</v>
+        <v>45758.0</v>
       </c>
       <c r="B156" s="5">
-        <v>87.46</v>
+        <v>108.5</v>
       </c>
       <c r="C156" s="5">
-        <v>101.75</v>
+        <v>111.55</v>
       </c>
       <c r="D156" s="5">
-        <v>86.62</v>
+        <v>107.48</v>
       </c>
       <c r="E156" s="5">
-        <v>97.64</v>
+        <v>110.93</v>
       </c>
       <c r="F156" s="5">
-        <v>97.63</v>
+        <v>110.92</v>
       </c>
       <c r="G156" s="6">
-        <v>6.110413E8</v>
+        <v>3.134173E8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>45751.0</v>
+        <v>45757.0</v>
       </c>
       <c r="B157" s="2">
-        <v>98.91</v>
+        <v>109.37</v>
       </c>
       <c r="C157" s="2">
-        <v>100.13</v>
+        <v>110.86</v>
       </c>
       <c r="D157" s="2">
-        <v>92.11</v>
+        <v>99.15</v>
       </c>
       <c r="E157" s="2">
-        <v>94.31</v>
+        <v>107.57</v>
       </c>
       <c r="F157" s="2">
-        <v>94.3</v>
+        <v>107.56</v>
       </c>
       <c r="G157" s="3">
-        <v>5.322738E8</v>
+        <v>4.378124E8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="4">
-        <v>45750.0</v>
+        <v>45756.0</v>
       </c>
       <c r="B158" s="5">
-        <v>103.51</v>
+        <v>98.89</v>
       </c>
       <c r="C158" s="5">
-        <v>105.63</v>
+        <v>115.1</v>
       </c>
       <c r="D158" s="5">
-        <v>101.6</v>
+        <v>97.53</v>
       </c>
       <c r="E158" s="5">
-        <v>101.8</v>
+        <v>114.33</v>
       </c>
       <c r="F158" s="5">
-        <v>101.79</v>
+        <v>114.32</v>
       </c>
       <c r="G158" s="6">
-        <v>3.387694E8</v>
+        <v>6.129183E8</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>45749.0</v>
+        <v>45755.0</v>
       </c>
       <c r="B159" s="2">
-        <v>107.29</v>
+        <v>103.81</v>
       </c>
       <c r="C159" s="2">
-        <v>111.98</v>
+        <v>105.85</v>
       </c>
       <c r="D159" s="2">
-        <v>106.79</v>
+        <v>94.46</v>
       </c>
       <c r="E159" s="2">
-        <v>110.42</v>
+        <v>96.3</v>
       </c>
       <c r="F159" s="2">
-        <v>110.41</v>
+        <v>96.29</v>
       </c>
       <c r="G159" s="3">
-        <v>2.206012E8</v>
+        <v>4.762434E8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="4">
-        <v>45748.0</v>
+        <v>45754.0</v>
       </c>
       <c r="B160" s="5">
-        <v>108.52</v>
+        <v>87.46</v>
       </c>
       <c r="C160" s="5">
-        <v>110.2</v>
+        <v>101.75</v>
       </c>
       <c r="D160" s="5">
-        <v>106.47</v>
+        <v>86.62</v>
       </c>
       <c r="E160" s="5">
-        <v>110.15</v>
+        <v>97.64</v>
       </c>
       <c r="F160" s="5">
-        <v>110.14</v>
+        <v>97.63</v>
       </c>
       <c r="G160" s="6">
-        <v>2.22614E8</v>
+        <v>6.110413E8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>45747.0</v>
+        <v>45751.0</v>
       </c>
       <c r="B161" s="2">
-        <v>105.13</v>
+        <v>98.91</v>
       </c>
       <c r="C161" s="2">
-        <v>110.96</v>
+        <v>100.13</v>
       </c>
       <c r="D161" s="2">
-        <v>103.65</v>
+        <v>92.11</v>
       </c>
       <c r="E161" s="2">
-        <v>108.38</v>
+        <v>94.31</v>
       </c>
       <c r="F161" s="2">
-        <v>108.37</v>
+        <v>94.3</v>
       </c>
       <c r="G161" s="3">
-        <v>2.992127E8</v>
+        <v>5.322738E8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="4">
-        <v>45744.0</v>
+        <v>45750.0</v>
       </c>
       <c r="B162" s="5">
-        <v>111.49</v>
+        <v>103.51</v>
       </c>
       <c r="C162" s="5">
-        <v>112.87</v>
+        <v>105.63</v>
       </c>
       <c r="D162" s="5">
-        <v>109.07</v>
+        <v>101.6</v>
       </c>
       <c r="E162" s="5">
-        <v>109.67</v>
+        <v>101.8</v>
       </c>
       <c r="F162" s="5">
-        <v>109.66</v>
+        <v>101.79</v>
       </c>
       <c r="G162" s="6">
-        <v>2.298725E8</v>
+        <v>3.387694E8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>45743.0</v>
+        <v>45749.0</v>
       </c>
       <c r="B163" s="2">
-        <v>111.35</v>
+        <v>107.29</v>
       </c>
       <c r="C163" s="2">
-        <v>114.45</v>
+        <v>111.98</v>
       </c>
       <c r="D163" s="2">
-        <v>110.66</v>
+        <v>106.79</v>
       </c>
       <c r="E163" s="2">
-        <v>111.43</v>
+        <v>110.42</v>
       </c>
       <c r="F163" s="2">
-        <v>111.42</v>
+        <v>110.41</v>
       </c>
       <c r="G163" s="3">
-        <v>2.369021E8</v>
+        <v>2.206012E8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="4">
-        <v>45742.0</v>
+        <v>45748.0</v>
       </c>
       <c r="B164" s="5">
-        <v>118.73</v>
+        <v>108.52</v>
       </c>
       <c r="C164" s="5">
-        <v>118.84</v>
+        <v>110.2</v>
       </c>
       <c r="D164" s="5">
-        <v>112.71</v>
+        <v>106.47</v>
       </c>
       <c r="E164" s="5">
-        <v>113.76</v>
+        <v>110.15</v>
       </c>
       <c r="F164" s="5">
-        <v>113.75</v>
+        <v>110.14</v>
       </c>
       <c r="G164" s="6">
-        <v>2.934633E8</v>
+        <v>2.22614E8</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>45741.0</v>
+        <v>45747.0</v>
       </c>
       <c r="B165" s="2">
-        <v>120.55</v>
+        <v>105.13</v>
       </c>
       <c r="C165" s="2">
-        <v>121.29</v>
+        <v>110.96</v>
       </c>
       <c r="D165" s="2">
-        <v>118.92</v>
+        <v>103.65</v>
       </c>
       <c r="E165" s="2">
-        <v>120.69</v>
+        <v>108.38</v>
       </c>
       <c r="F165" s="2">
-        <v>120.67</v>
+        <v>108.37</v>
       </c>
       <c r="G165" s="3">
-        <v>1.674472E8</v>
+        <v>2.992127E8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="4">
-        <v>45740.0</v>
+        <v>45744.0</v>
       </c>
       <c r="B166" s="5">
-        <v>119.88</v>
+        <v>111.49</v>
       </c>
       <c r="C166" s="5">
-        <v>122.22</v>
+        <v>112.87</v>
       </c>
       <c r="D166" s="5">
-        <v>119.34</v>
+        <v>109.07</v>
       </c>
       <c r="E166" s="5">
-        <v>121.41</v>
+        <v>109.67</v>
       </c>
       <c r="F166" s="5">
-        <v>121.39</v>
+        <v>109.66</v>
       </c>
       <c r="G166" s="6">
-        <v>2.284525E8</v>
+        <v>2.298725E8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>45737.0</v>
+        <v>45743.0</v>
       </c>
       <c r="B167" s="2">
-        <v>116.94</v>
+        <v>111.35</v>
       </c>
       <c r="C167" s="2">
-        <v>117.99</v>
+        <v>114.45</v>
       </c>
       <c r="D167" s="2">
-        <v>115.42</v>
+        <v>110.66</v>
       </c>
       <c r="E167" s="2">
-        <v>117.7</v>
+        <v>111.43</v>
       </c>
       <c r="F167" s="2">
-        <v>117.69</v>
+        <v>111.42</v>
       </c>
       <c r="G167" s="3">
-        <v>2.664985E8</v>
+        <v>2.369021E8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="4">
-        <v>45736.0</v>
+        <v>45742.0</v>
       </c>
       <c r="B168" s="5">
-        <v>116.55</v>
+        <v>118.73</v>
       </c>
       <c r="C168" s="5">
-        <v>120.2</v>
+        <v>118.84</v>
       </c>
       <c r="D168" s="5">
-        <v>116.47</v>
+        <v>112.71</v>
       </c>
       <c r="E168" s="5">
-        <v>118.53</v>
+        <v>113.76</v>
       </c>
       <c r="F168" s="5">
-        <v>118.52</v>
+        <v>113.75</v>
       </c>
       <c r="G168" s="6">
-        <v>2.488297E8</v>
+        <v>2.934633E8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>45735.0</v>
+        <v>45741.0</v>
       </c>
       <c r="B169" s="2">
-        <v>117.27</v>
+        <v>120.55</v>
       </c>
       <c r="C169" s="2">
-        <v>120.45</v>
+        <v>121.29</v>
       </c>
       <c r="D169" s="2">
-        <v>115.68</v>
+        <v>118.92</v>
       </c>
       <c r="E169" s="2">
-        <v>117.52</v>
+        <v>120.69</v>
       </c>
       <c r="F169" s="2">
-        <v>117.51</v>
+        <v>120.67</v>
       </c>
       <c r="G169" s="3">
-        <v>2.734262E8</v>
+        <v>1.674472E8</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="4">
-        <v>45734.0</v>
+        <v>45740.0</v>
       </c>
       <c r="B170" s="5">
-        <v>118.0</v>
+        <v>119.88</v>
       </c>
       <c r="C170" s="5">
-        <v>119.02</v>
+        <v>122.22</v>
       </c>
       <c r="D170" s="5">
-        <v>114.54</v>
+        <v>119.34</v>
       </c>
       <c r="E170" s="5">
-        <v>115.43</v>
+        <v>121.41</v>
       </c>
       <c r="F170" s="5">
-        <v>115.42</v>
+        <v>121.39</v>
       </c>
       <c r="G170" s="6">
-        <v>2.996869E8</v>
+        <v>2.284525E8</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>45733.0</v>
+        <v>45737.0</v>
       </c>
       <c r="B171" s="2">
-        <v>122.74</v>
+        <v>116.94</v>
       </c>
       <c r="C171" s="2">
-        <v>122.89</v>
+        <v>117.99</v>
       </c>
       <c r="D171" s="2">
-        <v>118.03</v>
+        <v>115.42</v>
       </c>
       <c r="E171" s="2">
-        <v>119.53</v>
+        <v>117.7</v>
       </c>
       <c r="F171" s="2">
-        <v>119.51</v>
+        <v>117.69</v>
       </c>
       <c r="G171" s="3">
-        <v>2.555015E8</v>
+        <v>2.664985E8</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="4">
-        <v>45730.0</v>
+        <v>45736.0</v>
       </c>
       <c r="B172" s="5">
-        <v>118.61</v>
+        <v>116.55</v>
       </c>
       <c r="C172" s="5">
-        <v>121.88</v>
+        <v>120.2</v>
       </c>
       <c r="D172" s="5">
-        <v>118.15</v>
+        <v>116.47</v>
       </c>
       <c r="E172" s="5">
-        <v>121.67</v>
+        <v>118.53</v>
       </c>
       <c r="F172" s="5">
-        <v>121.65</v>
+        <v>118.52</v>
       </c>
       <c r="G172" s="6">
-        <v>2.775935E8</v>
+        <v>2.488297E8</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
+        <v>45735.0</v>
+      </c>
+      <c r="B173" s="2">
+        <v>117.27</v>
+      </c>
+      <c r="C173" s="2">
+        <v>120.45</v>
+      </c>
+      <c r="D173" s="2">
+        <v>115.68</v>
+      </c>
+      <c r="E173" s="2">
+        <v>117.52</v>
+      </c>
+      <c r="F173" s="2">
+        <v>117.51</v>
+      </c>
+      <c r="G173" s="3">
+        <v>2.734262E8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4">
+        <v>45734.0</v>
+      </c>
+      <c r="B174" s="5">
+        <v>118.0</v>
+      </c>
+      <c r="C174" s="5">
+        <v>119.02</v>
+      </c>
+      <c r="D174" s="5">
+        <v>114.54</v>
+      </c>
+      <c r="E174" s="5">
+        <v>115.43</v>
+      </c>
+      <c r="F174" s="5">
+        <v>115.42</v>
+      </c>
+      <c r="G174" s="6">
+        <v>2.996869E8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>45733.0</v>
+      </c>
+      <c r="B175" s="2">
+        <v>122.74</v>
+      </c>
+      <c r="C175" s="2">
+        <v>122.89</v>
+      </c>
+      <c r="D175" s="2">
+        <v>118.03</v>
+      </c>
+      <c r="E175" s="2">
+        <v>119.53</v>
+      </c>
+      <c r="F175" s="2">
+        <v>119.51</v>
+      </c>
+      <c r="G175" s="3">
+        <v>2.555015E8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4">
+        <v>45730.0</v>
+      </c>
+      <c r="B176" s="5">
+        <v>118.61</v>
+      </c>
+      <c r="C176" s="5">
+        <v>121.88</v>
+      </c>
+      <c r="D176" s="5">
+        <v>118.15</v>
+      </c>
+      <c r="E176" s="5">
+        <v>121.67</v>
+      </c>
+      <c r="F176" s="5">
+        <v>121.65</v>
+      </c>
+      <c r="G176" s="6">
+        <v>2.775935E8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
         <v>45729.0</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B177" s="2">
         <v>117.03</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C177" s="2">
         <v>117.76</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D177" s="2">
         <v>113.79</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E177" s="2">
         <v>115.58</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F177" s="2">
         <v>115.57</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G177" s="3">
         <v>2.990331E8</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>45728.0</v>
-      </c>
-      <c r="B174" s="2">
-        <v>114.12</v>
-      </c>
-      <c r="C174" s="2">
-        <v>116.76</v>
-      </c>
-      <c r="D174" s="2">
-        <v>112.88</v>
-      </c>
-      <c r="E174" s="2">
-        <v>115.74</v>
-      </c>
-      <c r="F174" s="2">
-        <v>115.73</v>
-      </c>
-      <c r="G174" s="3">
-        <v>3.238575E8</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="4">
-        <v>45727.0</v>
-      </c>
-      <c r="B175" s="5">
-        <v>106.99</v>
-      </c>
-      <c r="C175" s="5">
-        <v>112.24</v>
-      </c>
-      <c r="D175" s="5">
-        <v>104.77</v>
-      </c>
-      <c r="E175" s="5">
-        <v>108.76</v>
-      </c>
-      <c r="F175" s="5">
-        <v>108.74</v>
-      </c>
-      <c r="G175" s="6">
-        <v>3.548657E8</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>45726.0</v>
-      </c>
-      <c r="B176" s="2">
-        <v>109.9</v>
-      </c>
-      <c r="C176" s="2">
-        <v>111.85</v>
-      </c>
-      <c r="D176" s="2">
-        <v>105.46</v>
-      </c>
-      <c r="E176" s="2">
-        <v>106.98</v>
-      </c>
-      <c r="F176" s="2">
-        <v>106.96</v>
-      </c>
-      <c r="G176" s="3">
-        <v>3.664874E8</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="4">
-        <v>45723.0</v>
-      </c>
-      <c r="B177" s="5">
-        <v>111.25</v>
-      </c>
-      <c r="C177" s="5">
-        <v>113.48</v>
-      </c>
-      <c r="D177" s="5">
-        <v>107.56</v>
-      </c>
-      <c r="E177" s="5">
-        <v>112.69</v>
-      </c>
-      <c r="F177" s="5">
-        <v>112.67</v>
-      </c>
-      <c r="G177" s="6">
-        <v>3.417555E8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>45722.0</v>
+        <v>45728.0</v>
       </c>
       <c r="B178" s="2">
-        <v>113.53</v>
+        <v>114.12</v>
       </c>
       <c r="C178" s="2">
-        <v>115.35</v>
+        <v>116.76</v>
       </c>
       <c r="D178" s="2">
-        <v>110.22</v>
+        <v>112.88</v>
       </c>
       <c r="E178" s="2">
-        <v>110.57</v>
+        <v>115.74</v>
       </c>
       <c r="F178" s="2">
-        <v>110.55</v>
+        <v>115.73</v>
       </c>
       <c r="G178" s="3">
-        <v>3.211819E8</v>
+        <v>3.238575E8</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4">
-        <v>45721.0</v>
+        <v>45727.0</v>
       </c>
       <c r="B179" s="5">
-        <v>117.58</v>
+        <v>106.99</v>
       </c>
       <c r="C179" s="5">
-        <v>118.28</v>
+        <v>112.24</v>
       </c>
       <c r="D179" s="5">
-        <v>114.51</v>
+        <v>104.77</v>
       </c>
       <c r="E179" s="5">
-        <v>117.3</v>
+        <v>108.76</v>
       </c>
       <c r="F179" s="5">
-        <v>117.27</v>
+        <v>108.74</v>
       </c>
       <c r="G179" s="6">
-        <v>2.843379E8</v>
+        <v>3.548657E8</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>45720.0</v>
+        <v>45726.0</v>
       </c>
       <c r="B180" s="2">
-        <v>110.65</v>
+        <v>109.9</v>
       </c>
       <c r="C180" s="2">
-        <v>119.31</v>
+        <v>111.85</v>
       </c>
       <c r="D180" s="2">
-        <v>110.11</v>
+        <v>105.46</v>
       </c>
       <c r="E180" s="2">
-        <v>115.99</v>
+        <v>106.98</v>
       </c>
       <c r="F180" s="2">
-        <v>115.96</v>
+        <v>106.96</v>
       </c>
       <c r="G180" s="3">
-        <v>3.981633E8</v>
+        <v>3.664874E8</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4">
-        <v>45719.0</v>
+        <v>45723.0</v>
       </c>
       <c r="B181" s="5">
-        <v>123.51</v>
+        <v>111.25</v>
       </c>
       <c r="C181" s="5">
-        <v>123.7</v>
+        <v>113.48</v>
       </c>
       <c r="D181" s="5">
-        <v>112.28</v>
+        <v>107.56</v>
       </c>
       <c r="E181" s="5">
-        <v>114.06</v>
+        <v>112.69</v>
       </c>
       <c r="F181" s="5">
-        <v>114.04</v>
+        <v>112.67</v>
       </c>
       <c r="G181" s="6">
-        <v>4.113814E8</v>
+        <v>3.417555E8</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>45716.0</v>
+        <v>45722.0</v>
       </c>
       <c r="B182" s="2">
-        <v>118.02</v>
+        <v>113.53</v>
       </c>
       <c r="C182" s="2">
-        <v>125.09</v>
+        <v>115.35</v>
       </c>
       <c r="D182" s="2">
-        <v>116.4</v>
+        <v>110.22</v>
       </c>
       <c r="E182" s="2">
-        <v>124.92</v>
+        <v>110.57</v>
       </c>
       <c r="F182" s="2">
-        <v>124.89</v>
+        <v>110.55</v>
       </c>
       <c r="G182" s="3">
-        <v>3.890911E8</v>
+        <v>3.211819E8</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4">
-        <v>45715.0</v>
+        <v>45721.0</v>
       </c>
       <c r="B183" s="5">
-        <v>135.0</v>
+        <v>117.58</v>
       </c>
       <c r="C183" s="5">
-        <v>135.01</v>
+        <v>118.28</v>
       </c>
       <c r="D183" s="5">
-        <v>120.01</v>
+        <v>114.51</v>
       </c>
       <c r="E183" s="5">
-        <v>120.15</v>
+        <v>117.3</v>
       </c>
       <c r="F183" s="5">
-        <v>120.12</v>
+        <v>117.27</v>
       </c>
       <c r="G183" s="6">
-        <v>4.431758E8</v>
+        <v>2.843379E8</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>45714.0</v>
+        <v>45720.0</v>
       </c>
       <c r="B184" s="2">
-        <v>129.99</v>
+        <v>110.65</v>
       </c>
       <c r="C184" s="2">
-        <v>133.73</v>
+        <v>119.31</v>
       </c>
       <c r="D184" s="2">
-        <v>128.49</v>
+        <v>110.11</v>
       </c>
       <c r="E184" s="2">
-        <v>131.28</v>
+        <v>115.99</v>
       </c>
       <c r="F184" s="2">
-        <v>131.25</v>
+        <v>115.96</v>
       </c>
       <c r="G184" s="3">
-        <v>3.225538E8</v>
+        <v>3.981633E8</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4">
-        <v>45713.0</v>
+        <v>45719.0</v>
       </c>
       <c r="B185" s="5">
-        <v>129.98</v>
+        <v>123.51</v>
       </c>
       <c r="C185" s="5">
-        <v>130.2</v>
+        <v>123.7</v>
       </c>
       <c r="D185" s="5">
-        <v>124.44</v>
+        <v>112.28</v>
       </c>
       <c r="E185" s="5">
-        <v>126.63</v>
+        <v>114.06</v>
       </c>
       <c r="F185" s="5">
-        <v>126.6</v>
+        <v>114.04</v>
       </c>
       <c r="G185" s="6">
-        <v>2.714287E8</v>
+        <v>4.113814E8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>45712.0</v>
+        <v>45716.0</v>
       </c>
       <c r="B186" s="2">
-        <v>136.56</v>
+        <v>118.02</v>
       </c>
       <c r="C186" s="2">
-        <v>138.59</v>
+        <v>125.09</v>
       </c>
       <c r="D186" s="2">
-        <v>130.08</v>
+        <v>116.4</v>
       </c>
       <c r="E186" s="2">
-        <v>130.28</v>
+        <v>124.92</v>
       </c>
       <c r="F186" s="2">
-        <v>130.25</v>
+        <v>124.89</v>
       </c>
       <c r="G186" s="3">
-        <v>2.513811E8</v>
+        <v>3.890911E8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4">
-        <v>45709.0</v>
+        <v>45715.0</v>
       </c>
       <c r="B187" s="5">
-        <v>140.04</v>
+        <v>135.0</v>
       </c>
       <c r="C187" s="5">
-        <v>141.46</v>
+        <v>135.01</v>
       </c>
       <c r="D187" s="5">
-        <v>134.03</v>
+        <v>120.01</v>
       </c>
       <c r="E187" s="5">
-        <v>134.43</v>
+        <v>120.15</v>
       </c>
       <c r="F187" s="5">
-        <v>134.4</v>
+        <v>120.12</v>
       </c>
       <c r="G187" s="6">
-        <v>2.282176E8</v>
+        <v>4.431758E8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>45708.0</v>
+        <v>45714.0</v>
       </c>
       <c r="B188" s="2">
-        <v>140.03</v>
+        <v>129.99</v>
       </c>
       <c r="C188" s="2">
-        <v>140.66</v>
+        <v>133.73</v>
       </c>
       <c r="D188" s="2">
-        <v>136.79</v>
+        <v>128.49</v>
       </c>
       <c r="E188" s="2">
-        <v>140.11</v>
+        <v>131.28</v>
       </c>
       <c r="F188" s="2">
-        <v>140.08</v>
+        <v>131.25</v>
       </c>
       <c r="G188" s="3">
-        <v>1.439036E8</v>
+        <v>3.225538E8</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4">
-        <v>45707.0</v>
+        <v>45713.0</v>
       </c>
       <c r="B189" s="5">
-        <v>139.51</v>
+        <v>129.98</v>
       </c>
       <c r="C189" s="5">
-        <v>141.36</v>
+        <v>130.2</v>
       </c>
       <c r="D189" s="5">
-        <v>137.22</v>
+        <v>124.44</v>
       </c>
       <c r="E189" s="5">
-        <v>139.23</v>
+        <v>126.63</v>
       </c>
       <c r="F189" s="5">
-        <v>139.2</v>
+        <v>126.6</v>
       </c>
       <c r="G189" s="6">
-        <v>1.67536E8</v>
+        <v>2.714287E8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>45706.0</v>
+        <v>45712.0</v>
       </c>
       <c r="B190" s="2">
-        <v>141.27</v>
+        <v>136.56</v>
       </c>
       <c r="C190" s="2">
-        <v>143.44</v>
+        <v>138.59</v>
       </c>
       <c r="D190" s="2">
-        <v>137.93</v>
+        <v>130.08</v>
       </c>
       <c r="E190" s="2">
-        <v>139.4</v>
+        <v>130.28</v>
       </c>
       <c r="F190" s="2">
-        <v>139.37</v>
+        <v>130.25</v>
       </c>
       <c r="G190" s="3">
-        <v>2.191766E8</v>
+        <v>2.513811E8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4">
-        <v>45702.0</v>
+        <v>45709.0</v>
       </c>
       <c r="B191" s="5">
-        <v>136.48</v>
+        <v>140.04</v>
       </c>
       <c r="C191" s="5">
-        <v>139.25</v>
+        <v>141.46</v>
       </c>
       <c r="D191" s="5">
-        <v>135.5</v>
+        <v>134.03</v>
       </c>
       <c r="E191" s="5">
-        <v>138.85</v>
+        <v>134.43</v>
       </c>
       <c r="F191" s="5">
-        <v>138.82</v>
+        <v>134.4</v>
       </c>
       <c r="G191" s="6">
-        <v>1.954796E8</v>
+        <v>2.282176E8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>45701.0</v>
+        <v>45708.0</v>
       </c>
       <c r="B192" s="2">
-        <v>131.56</v>
+        <v>140.03</v>
       </c>
       <c r="C192" s="2">
-        <v>136.5</v>
+        <v>140.66</v>
       </c>
       <c r="D192" s="2">
-        <v>131.17</v>
+        <v>136.79</v>
       </c>
       <c r="E192" s="2">
-        <v>135.29</v>
+        <v>140.11</v>
       </c>
       <c r="F192" s="2">
-        <v>135.26</v>
+        <v>140.08</v>
       </c>
       <c r="G192" s="3">
-        <v>1.9743E8</v>
+        <v>1.439036E8</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4">
-        <v>45700.0</v>
+        <v>45707.0</v>
       </c>
       <c r="B193" s="5">
-        <v>130.02</v>
+        <v>139.51</v>
       </c>
       <c r="C193" s="5">
-        <v>132.24</v>
+        <v>141.36</v>
       </c>
       <c r="D193" s="5">
-        <v>129.08</v>
+        <v>137.22</v>
       </c>
       <c r="E193" s="5">
-        <v>131.14</v>
+        <v>139.23</v>
       </c>
       <c r="F193" s="5">
-        <v>131.11</v>
+        <v>139.2</v>
       </c>
       <c r="G193" s="6">
-        <v>1.602786E8</v>
+        <v>1.67536E8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>45699.0</v>
+        <v>45706.0</v>
       </c>
       <c r="B194" s="2">
-        <v>132.58</v>
+        <v>141.27</v>
       </c>
       <c r="C194" s="2">
-        <v>134.48</v>
+        <v>143.44</v>
       </c>
       <c r="D194" s="2">
-        <v>131.02</v>
+        <v>137.93</v>
       </c>
       <c r="E194" s="2">
-        <v>132.8</v>
+        <v>139.4</v>
       </c>
       <c r="F194" s="2">
-        <v>132.77</v>
+        <v>139.37</v>
       </c>
       <c r="G194" s="3">
-        <v>1.789024E8</v>
+        <v>2.191766E8</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4">
-        <v>45698.0</v>
+        <v>45702.0</v>
       </c>
       <c r="B195" s="5">
-        <v>130.09</v>
+        <v>136.48</v>
       </c>
       <c r="C195" s="5">
-        <v>135.0</v>
+        <v>139.25</v>
       </c>
       <c r="D195" s="5">
-        <v>129.96</v>
+        <v>135.5</v>
       </c>
       <c r="E195" s="5">
-        <v>133.57</v>
+        <v>138.85</v>
       </c>
       <c r="F195" s="5">
-        <v>133.54</v>
+        <v>138.82</v>
       </c>
       <c r="G195" s="6">
-        <v>2.169891E8</v>
+        <v>1.954796E8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>45695.0</v>
+        <v>45701.0</v>
       </c>
       <c r="B196" s="2">
-        <v>129.22</v>
+        <v>131.56</v>
       </c>
       <c r="C196" s="2">
-        <v>130.37</v>
+        <v>136.5</v>
       </c>
       <c r="D196" s="2">
-        <v>125.0</v>
+        <v>131.17</v>
       </c>
       <c r="E196" s="2">
-        <v>129.84</v>
+        <v>135.29</v>
       </c>
       <c r="F196" s="2">
-        <v>129.81</v>
+        <v>135.26</v>
       </c>
       <c r="G196" s="3">
-        <v>2.281863E8</v>
+        <v>1.9743E8</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="4">
-        <v>45694.0</v>
+        <v>45700.0</v>
       </c>
       <c r="B197" s="5">
-        <v>127.42</v>
+        <v>130.02</v>
       </c>
       <c r="C197" s="5">
-        <v>128.77</v>
+        <v>132.24</v>
       </c>
       <c r="D197" s="5">
-        <v>125.21</v>
+        <v>129.08</v>
       </c>
       <c r="E197" s="5">
-        <v>128.68</v>
+        <v>131.14</v>
       </c>
       <c r="F197" s="5">
-        <v>128.65</v>
+        <v>131.11</v>
       </c>
       <c r="G197" s="6">
-        <v>2.514836E8</v>
+        <v>1.602786E8</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>45693.0</v>
+        <v>45699.0</v>
       </c>
       <c r="B198" s="2">
-        <v>121.76</v>
+        <v>132.58</v>
       </c>
       <c r="C198" s="2">
-        <v>125.0</v>
+        <v>134.48</v>
       </c>
       <c r="D198" s="2">
-        <v>120.76</v>
+        <v>131.02</v>
       </c>
       <c r="E198" s="2">
-        <v>124.83</v>
+        <v>132.8</v>
       </c>
       <c r="F198" s="2">
-        <v>124.8</v>
+        <v>132.77</v>
       </c>
       <c r="G198" s="3">
-        <v>2.622308E8</v>
+        <v>1.789024E8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4">
-        <v>45692.0</v>
+        <v>45698.0</v>
       </c>
       <c r="B199" s="5">
-        <v>116.96</v>
+        <v>130.09</v>
       </c>
       <c r="C199" s="5">
-        <v>121.2</v>
+        <v>135.0</v>
       </c>
       <c r="D199" s="5">
-        <v>116.7</v>
+        <v>129.96</v>
       </c>
       <c r="E199" s="5">
-        <v>118.65</v>
+        <v>133.57</v>
       </c>
       <c r="F199" s="5">
-        <v>118.62</v>
+        <v>133.54</v>
       </c>
       <c r="G199" s="6">
-        <v>2.5655E8</v>
+        <v>2.169891E8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>45691.0</v>
+        <v>45695.0</v>
       </c>
       <c r="B200" s="2">
-        <v>114.75</v>
+        <v>129.22</v>
       </c>
       <c r="C200" s="2">
-        <v>118.57</v>
+        <v>130.37</v>
       </c>
       <c r="D200" s="2">
-        <v>113.01</v>
+        <v>125.0</v>
       </c>
       <c r="E200" s="2">
-        <v>116.66</v>
+        <v>129.84</v>
       </c>
       <c r="F200" s="2">
-        <v>116.63</v>
+        <v>129.81</v>
       </c>
       <c r="G200" s="3">
-        <v>3.712357E8</v>
+        <v>2.281863E8</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="4">
-        <v>45688.0</v>
+        <v>45694.0</v>
       </c>
       <c r="B201" s="5">
-        <v>123.78</v>
+        <v>127.42</v>
       </c>
       <c r="C201" s="5">
-        <v>127.85</v>
+        <v>128.77</v>
       </c>
       <c r="D201" s="5">
-        <v>119.19</v>
+        <v>125.21</v>
       </c>
       <c r="E201" s="5">
-        <v>120.07</v>
+        <v>128.68</v>
       </c>
       <c r="F201" s="5">
-        <v>120.04</v>
+        <v>128.65</v>
       </c>
       <c r="G201" s="6">
-        <v>3.881611E8</v>
+        <v>2.514836E8</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>45687.0</v>
+        <v>45693.0</v>
       </c>
       <c r="B202" s="2">
-        <v>123.1</v>
+        <v>121.76</v>
       </c>
       <c r="C202" s="2">
         <v>125.0</v>
       </c>
       <c r="D202" s="2">
-        <v>118.1</v>
+        <v>120.76</v>
       </c>
       <c r="E202" s="2">
-        <v>124.65</v>
+        <v>124.83</v>
       </c>
       <c r="F202" s="2">
-        <v>124.62</v>
+        <v>124.8</v>
       </c>
       <c r="G202" s="3">
-        <v>3.929255E8</v>
+        <v>2.622308E8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4">
-        <v>45686.0</v>
+        <v>45692.0</v>
       </c>
       <c r="B203" s="5">
-        <v>126.5</v>
+        <v>116.96</v>
       </c>
       <c r="C203" s="5">
-        <v>126.89</v>
+        <v>121.2</v>
       </c>
       <c r="D203" s="5">
-        <v>120.05</v>
+        <v>116.7</v>
       </c>
       <c r="E203" s="5">
-        <v>123.7</v>
+        <v>118.65</v>
       </c>
       <c r="F203" s="5">
-        <v>123.67</v>
+        <v>118.62</v>
       </c>
       <c r="G203" s="6">
-        <v>4.671206E8</v>
+        <v>2.5655E8</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>45685.0</v>
+        <v>45691.0</v>
       </c>
       <c r="B204" s="2">
-        <v>121.81</v>
+        <v>114.75</v>
       </c>
       <c r="C204" s="2">
-        <v>129.0</v>
+        <v>118.57</v>
       </c>
       <c r="D204" s="2">
-        <v>116.25</v>
+        <v>113.01</v>
       </c>
       <c r="E204" s="2">
-        <v>128.99</v>
+        <v>116.66</v>
       </c>
       <c r="F204" s="2">
-        <v>128.96</v>
+        <v>116.63</v>
       </c>
       <c r="G204" s="3">
-        <v>5.796664E8</v>
+        <v>3.712357E8</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4">
-        <v>45684.0</v>
+        <v>45688.0</v>
       </c>
       <c r="B205" s="5">
-        <v>124.8</v>
+        <v>123.78</v>
       </c>
       <c r="C205" s="5">
-        <v>128.4</v>
+        <v>127.85</v>
       </c>
       <c r="D205" s="5">
-        <v>116.7</v>
+        <v>119.19</v>
       </c>
       <c r="E205" s="5">
-        <v>118.42</v>
+        <v>120.07</v>
       </c>
       <c r="F205" s="5">
-        <v>118.39</v>
+        <v>120.04</v>
       </c>
       <c r="G205" s="6">
-        <v>8.188309E8</v>
+        <v>3.881611E8</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>45681.0</v>
+        <v>45687.0</v>
       </c>
       <c r="B206" s="2">
-        <v>148.37</v>
+        <v>123.1</v>
       </c>
       <c r="C206" s="2">
-        <v>148.97</v>
+        <v>125.0</v>
       </c>
       <c r="D206" s="2">
-        <v>141.88</v>
+        <v>118.1</v>
       </c>
       <c r="E206" s="2">
-        <v>142.62</v>
+        <v>124.65</v>
       </c>
       <c r="F206" s="2">
-        <v>142.59</v>
+        <v>124.62</v>
       </c>
       <c r="G206" s="3">
-        <v>2.346576E8</v>
+        <v>3.929255E8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4">
-        <v>45680.0</v>
+        <v>45686.0</v>
       </c>
       <c r="B207" s="5">
-        <v>145.05</v>
+        <v>126.5</v>
       </c>
       <c r="C207" s="5">
-        <v>147.23</v>
+        <v>126.89</v>
       </c>
       <c r="D207" s="5">
-        <v>143.72</v>
+        <v>120.05</v>
       </c>
       <c r="E207" s="5">
-        <v>147.22</v>
+        <v>123.7</v>
       </c>
       <c r="F207" s="5">
-        <v>147.19</v>
+        <v>123.67</v>
       </c>
       <c r="G207" s="6">
-        <v>1.559155E8</v>
+        <v>4.671206E8</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>45679.0</v>
+        <v>45685.0</v>
       </c>
       <c r="B208" s="2">
-        <v>144.66</v>
+        <v>121.81</v>
       </c>
       <c r="C208" s="2">
-        <v>147.79</v>
+        <v>129.0</v>
       </c>
       <c r="D208" s="2">
-        <v>143.67</v>
+        <v>116.25</v>
       </c>
       <c r="E208" s="2">
-        <v>147.07</v>
+        <v>128.99</v>
       </c>
       <c r="F208" s="2">
-        <v>147.04</v>
+        <v>128.96</v>
       </c>
       <c r="G208" s="3">
-        <v>2.376514E8</v>
+        <v>5.796664E8</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4">
-        <v>45678.0</v>
+        <v>45684.0</v>
       </c>
       <c r="B209" s="5">
-        <v>139.16</v>
+        <v>124.8</v>
       </c>
       <c r="C209" s="5">
-        <v>141.83</v>
+        <v>128.4</v>
       </c>
       <c r="D209" s="5">
-        <v>137.09</v>
+        <v>116.7</v>
       </c>
       <c r="E209" s="5">
-        <v>140.83</v>
+        <v>118.42</v>
       </c>
       <c r="F209" s="5">
-        <v>140.8</v>
+        <v>118.39</v>
       </c>
       <c r="G209" s="6">
-        <v>1.97749E8</v>
+        <v>8.188309E8</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>45674.0</v>
+        <v>45681.0</v>
       </c>
       <c r="B210" s="2">
-        <v>136.69</v>
+        <v>148.37</v>
       </c>
       <c r="C210" s="2">
-        <v>138.5</v>
+        <v>148.97</v>
       </c>
       <c r="D210" s="2">
-        <v>135.46</v>
+        <v>141.88</v>
       </c>
       <c r="E210" s="2">
-        <v>137.71</v>
+        <v>142.62</v>
       </c>
       <c r="F210" s="2">
-        <v>137.68</v>
+        <v>142.59</v>
       </c>
       <c r="G210" s="3">
-        <v>2.011888E8</v>
+        <v>2.346576E8</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4">
-        <v>45673.0</v>
+        <v>45680.0</v>
       </c>
       <c r="B211" s="5">
-        <v>138.64</v>
+        <v>145.05</v>
       </c>
       <c r="C211" s="5">
-        <v>138.75</v>
+        <v>147.23</v>
       </c>
       <c r="D211" s="5">
-        <v>133.49</v>
+        <v>143.72</v>
       </c>
       <c r="E211" s="5">
-        <v>133.57</v>
+        <v>147.22</v>
       </c>
       <c r="F211" s="5">
-        <v>133.54</v>
+        <v>147.19</v>
       </c>
       <c r="G211" s="6">
-        <v>2.092356E8</v>
+        <v>1.559155E8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>45672.0</v>
+        <v>45679.0</v>
       </c>
       <c r="B212" s="2">
-        <v>133.65</v>
+        <v>144.66</v>
       </c>
       <c r="C212" s="2">
-        <v>136.45</v>
+        <v>147.79</v>
       </c>
       <c r="D212" s="2">
-        <v>131.29</v>
+        <v>143.67</v>
       </c>
       <c r="E212" s="2">
-        <v>136.24</v>
+        <v>147.07</v>
       </c>
       <c r="F212" s="2">
-        <v>136.21</v>
+        <v>147.04</v>
       </c>
       <c r="G212" s="3">
-        <v>1.852173E8</v>
+        <v>2.376514E8</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4">
-        <v>45671.0</v>
+        <v>45678.0</v>
       </c>
       <c r="B213" s="5">
-        <v>136.05</v>
+        <v>139.16</v>
       </c>
       <c r="C213" s="5">
-        <v>136.38</v>
+        <v>141.83</v>
       </c>
       <c r="D213" s="5">
-        <v>130.05</v>
+        <v>137.09</v>
       </c>
       <c r="E213" s="5">
-        <v>131.76</v>
+        <v>140.83</v>
       </c>
       <c r="F213" s="5">
-        <v>131.73</v>
+        <v>140.8</v>
       </c>
       <c r="G213" s="6">
-        <v>1.955905E8</v>
+        <v>1.97749E8</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>45670.0</v>
+        <v>45674.0</v>
       </c>
       <c r="B214" s="2">
-        <v>129.99</v>
+        <v>136.69</v>
       </c>
       <c r="C214" s="2">
-        <v>133.49</v>
+        <v>138.5</v>
       </c>
       <c r="D214" s="2">
-        <v>129.51</v>
+        <v>135.46</v>
       </c>
       <c r="E214" s="2">
-        <v>133.23</v>
+        <v>137.71</v>
       </c>
       <c r="F214" s="2">
-        <v>133.2</v>
+        <v>137.68</v>
       </c>
       <c r="G214" s="3">
-        <v>2.048089E8</v>
+        <v>2.011888E8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="4">
-        <v>45667.0</v>
+        <v>45673.0</v>
       </c>
       <c r="B215" s="5">
-        <v>137.45</v>
+        <v>138.64</v>
       </c>
       <c r="C215" s="5">
-        <v>139.92</v>
+        <v>138.75</v>
       </c>
       <c r="D215" s="5">
-        <v>134.22</v>
+        <v>133.49</v>
       </c>
       <c r="E215" s="5">
-        <v>135.91</v>
+        <v>133.57</v>
       </c>
       <c r="F215" s="5">
-        <v>135.88</v>
+        <v>133.54</v>
       </c>
       <c r="G215" s="6">
-        <v>2.076025E8</v>
+        <v>2.092356E8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1">
-        <v>45665.0</v>
+        <v>45672.0</v>
       </c>
       <c r="B216" s="2">
-        <v>142.58</v>
+        <v>133.65</v>
       </c>
       <c r="C216" s="2">
-        <v>143.95</v>
+        <v>136.45</v>
       </c>
       <c r="D216" s="2">
-        <v>137.56</v>
+        <v>131.29</v>
       </c>
       <c r="E216" s="2">
-        <v>140.11</v>
+        <v>136.24</v>
       </c>
       <c r="F216" s="2">
-        <v>140.08</v>
+        <v>136.21</v>
       </c>
       <c r="G216" s="3">
-        <v>2.273499E8</v>
+        <v>1.852173E8</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="4">
-        <v>45664.0</v>
+        <v>45671.0</v>
       </c>
       <c r="B217" s="5">
-        <v>153.03</v>
+        <v>136.05</v>
       </c>
       <c r="C217" s="5">
-        <v>153.13</v>
+        <v>136.38</v>
       </c>
       <c r="D217" s="5">
-        <v>140.01</v>
+        <v>130.05</v>
       </c>
       <c r="E217" s="5">
-        <v>140.14</v>
+        <v>131.76</v>
       </c>
       <c r="F217" s="5">
-        <v>140.11</v>
+        <v>131.73</v>
       </c>
       <c r="G217" s="6">
-        <v>3.517822E8</v>
+        <v>1.955905E8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>45663.0</v>
+        <v>45670.0</v>
       </c>
       <c r="B218" s="2">
-        <v>148.59</v>
+        <v>129.99</v>
       </c>
       <c r="C218" s="2">
-        <v>152.16</v>
+        <v>133.49</v>
       </c>
       <c r="D218" s="2">
-        <v>147.82</v>
+        <v>129.51</v>
       </c>
       <c r="E218" s="2">
-        <v>149.43</v>
+        <v>133.23</v>
       </c>
       <c r="F218" s="2">
-        <v>149.4</v>
+        <v>133.2</v>
       </c>
       <c r="G218" s="3">
-        <v>2.653774E8</v>
+        <v>2.048089E8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="4">
-        <v>45660.0</v>
+        <v>45667.0</v>
       </c>
       <c r="B219" s="5">
-        <v>140.01</v>
+        <v>137.45</v>
       </c>
       <c r="C219" s="5">
-        <v>144.9</v>
+        <v>139.92</v>
       </c>
       <c r="D219" s="5">
-        <v>139.73</v>
+        <v>134.22</v>
       </c>
       <c r="E219" s="5">
-        <v>144.47</v>
+        <v>135.91</v>
       </c>
       <c r="F219" s="5">
-        <v>144.44</v>
+        <v>135.88</v>
       </c>
       <c r="G219" s="6">
-        <v>2.293225E8</v>
+        <v>2.076025E8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>45659.0</v>
+        <v>45665.0</v>
       </c>
       <c r="B220" s="2">
-        <v>136.0</v>
+        <v>142.58</v>
       </c>
       <c r="C220" s="2">
-        <v>138.88</v>
+        <v>143.95</v>
       </c>
       <c r="D220" s="2">
-        <v>134.63</v>
+        <v>137.56</v>
       </c>
       <c r="E220" s="2">
-        <v>138.31</v>
+        <v>140.11</v>
       </c>
       <c r="F220" s="2">
-        <v>138.28</v>
+        <v>140.08</v>
       </c>
       <c r="G220" s="3">
-        <v>1.982472E8</v>
+        <v>2.273499E8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4">
-        <v>45657.0</v>
+        <v>45664.0</v>
       </c>
       <c r="B221" s="5">
-        <v>138.03</v>
+        <v>153.03</v>
       </c>
       <c r="C221" s="5">
-        <v>138.07</v>
+        <v>153.13</v>
       </c>
       <c r="D221" s="5">
-        <v>133.83</v>
+        <v>140.01</v>
       </c>
       <c r="E221" s="5">
-        <v>134.29</v>
+        <v>140.14</v>
       </c>
       <c r="F221" s="5">
-        <v>134.26</v>
+        <v>140.11</v>
       </c>
       <c r="G221" s="6">
-        <v>1.556592E8</v>
+        <v>3.517822E8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>45656.0</v>
+        <v>45663.0</v>
       </c>
       <c r="B222" s="2">
-        <v>134.83</v>
+        <v>148.59</v>
       </c>
       <c r="C222" s="2">
-        <v>140.27</v>
+        <v>152.16</v>
       </c>
       <c r="D222" s="2">
-        <v>134.02</v>
+        <v>147.82</v>
       </c>
       <c r="E222" s="2">
-        <v>137.49</v>
+        <v>149.43</v>
       </c>
       <c r="F222" s="2">
-        <v>137.46</v>
+        <v>149.4</v>
       </c>
       <c r="G222" s="3">
-        <v>1.677347E8</v>
+        <v>2.653774E8</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="4">
-        <v>45653.0</v>
+        <v>45660.0</v>
       </c>
       <c r="B223" s="5">
-        <v>138.55</v>
+        <v>140.01</v>
       </c>
       <c r="C223" s="5">
-        <v>139.02</v>
+        <v>144.9</v>
       </c>
       <c r="D223" s="5">
-        <v>134.71</v>
+        <v>139.73</v>
       </c>
       <c r="E223" s="5">
-        <v>137.01</v>
+        <v>144.47</v>
       </c>
       <c r="F223" s="5">
-        <v>136.98</v>
+        <v>144.44</v>
       </c>
       <c r="G223" s="6">
-        <v>1.705826E8</v>
+        <v>2.293225E8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>45652.0</v>
+        <v>45659.0</v>
       </c>
       <c r="B224" s="2">
-        <v>139.7</v>
+        <v>136.0</v>
       </c>
       <c r="C224" s="2">
-        <v>140.85</v>
+        <v>138.88</v>
       </c>
       <c r="D224" s="2">
-        <v>137.73</v>
+        <v>134.63</v>
       </c>
       <c r="E224" s="2">
-        <v>139.93</v>
+        <v>138.31</v>
       </c>
       <c r="F224" s="2">
-        <v>139.9</v>
+        <v>138.28</v>
       </c>
       <c r="G224" s="3">
-        <v>1.162056E8</v>
+        <v>1.982472E8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4">
-        <v>45650.0</v>
+        <v>45657.0</v>
       </c>
       <c r="B225" s="5">
-        <v>140.0</v>
+        <v>138.03</v>
       </c>
       <c r="C225" s="5">
-        <v>141.9</v>
+        <v>138.07</v>
       </c>
       <c r="D225" s="5">
-        <v>138.65</v>
+        <v>133.83</v>
       </c>
       <c r="E225" s="5">
-        <v>140.22</v>
+        <v>134.29</v>
       </c>
       <c r="F225" s="5">
-        <v>140.19</v>
+        <v>134.26</v>
       </c>
       <c r="G225" s="6">
-        <v>1.05157E8</v>
+        <v>1.556592E8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>45649.0</v>
+        <v>45656.0</v>
       </c>
       <c r="B226" s="2">
-        <v>136.28</v>
+        <v>134.83</v>
       </c>
       <c r="C226" s="2">
-        <v>139.79</v>
+        <v>140.27</v>
       </c>
       <c r="D226" s="2">
-        <v>135.12</v>
+        <v>134.02</v>
       </c>
       <c r="E226" s="2">
-        <v>139.67</v>
+        <v>137.49</v>
       </c>
       <c r="F226" s="2">
-        <v>139.64</v>
+        <v>137.46</v>
       </c>
       <c r="G226" s="3">
-        <v>1.760535E8</v>
+        <v>1.677347E8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="4">
-        <v>45646.0</v>
+        <v>45653.0</v>
       </c>
       <c r="B227" s="5">
-        <v>129.81</v>
+        <v>138.55</v>
       </c>
       <c r="C227" s="5">
-        <v>135.28</v>
+        <v>139.02</v>
       </c>
       <c r="D227" s="5">
-        <v>128.22</v>
+        <v>134.71</v>
       </c>
       <c r="E227" s="5">
-        <v>134.7</v>
+        <v>137.01</v>
       </c>
       <c r="F227" s="5">
-        <v>134.67</v>
+        <v>136.98</v>
       </c>
       <c r="G227" s="6">
-        <v>3.065286E8</v>
+        <v>1.705826E8</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>45645.0</v>
+        <v>45652.0</v>
       </c>
       <c r="B228" s="2">
-        <v>131.76</v>
+        <v>139.7</v>
       </c>
       <c r="C228" s="2">
-        <v>134.03</v>
+        <v>140.85</v>
       </c>
       <c r="D228" s="2">
-        <v>129.55</v>
+        <v>137.73</v>
       </c>
       <c r="E228" s="2">
-        <v>130.68</v>
+        <v>139.93</v>
       </c>
       <c r="F228" s="2">
-        <v>130.65</v>
+        <v>139.9</v>
       </c>
       <c r="G228" s="3">
-        <v>2.097192E8</v>
+        <v>1.162056E8</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="4">
-        <v>45644.0</v>
+        <v>45650.0</v>
       </c>
       <c r="B229" s="5">
-        <v>133.86</v>
+        <v>140.0</v>
       </c>
       <c r="C229" s="5">
-        <v>136.7</v>
+        <v>141.9</v>
       </c>
       <c r="D229" s="5">
-        <v>128.28</v>
+        <v>138.65</v>
       </c>
       <c r="E229" s="5">
-        <v>128.91</v>
+        <v>140.22</v>
       </c>
       <c r="F229" s="5">
-        <v>128.88</v>
+        <v>140.19</v>
       </c>
       <c r="G229" s="6">
-        <v>2.774445E8</v>
+        <v>1.05157E8</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>45643.0</v>
+        <v>45649.0</v>
       </c>
       <c r="B230" s="2">
-        <v>129.09</v>
+        <v>136.28</v>
       </c>
       <c r="C230" s="2">
-        <v>131.59</v>
+        <v>139.79</v>
       </c>
       <c r="D230" s="2">
-        <v>126.86</v>
+        <v>135.12</v>
       </c>
       <c r="E230" s="2">
-        <v>130.39</v>
+        <v>139.67</v>
       </c>
       <c r="F230" s="2">
-        <v>130.36</v>
+        <v>139.64</v>
       </c>
       <c r="G230" s="3">
-        <v>2.594103E8</v>
+        <v>1.760535E8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="4">
-        <v>45642.0</v>
+        <v>45646.0</v>
       </c>
       <c r="B231" s="5">
-        <v>134.18</v>
+        <v>129.81</v>
       </c>
       <c r="C231" s="5">
-        <v>134.4</v>
+        <v>135.28</v>
       </c>
       <c r="D231" s="5">
-        <v>130.42</v>
+        <v>128.22</v>
       </c>
       <c r="E231" s="5">
-        <v>132.0</v>
+        <v>134.7</v>
       </c>
       <c r="F231" s="5">
-        <v>131.97</v>
+        <v>134.67</v>
       </c>
       <c r="G231" s="6">
-        <v>2.379511E8</v>
+        <v>3.065286E8</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
-        <v>45639.0</v>
+        <v>45645.0</v>
       </c>
       <c r="B232" s="2">
-        <v>138.94</v>
+        <v>131.76</v>
       </c>
       <c r="C232" s="2">
-        <v>139.6</v>
+        <v>134.03</v>
       </c>
       <c r="D232" s="2">
-        <v>132.54</v>
+        <v>129.55</v>
       </c>
       <c r="E232" s="2">
-        <v>134.25</v>
+        <v>130.68</v>
       </c>
       <c r="F232" s="2">
-        <v>134.22</v>
+        <v>130.65</v>
       </c>
       <c r="G232" s="3">
-        <v>2.315149E8</v>
+        <v>2.097192E8</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="4">
-        <v>45638.0</v>
+        <v>45644.0</v>
       </c>
       <c r="B233" s="5">
-        <v>137.08</v>
+        <v>133.86</v>
       </c>
       <c r="C233" s="5">
-        <v>138.44</v>
+        <v>136.7</v>
       </c>
       <c r="D233" s="5">
-        <v>135.8</v>
+        <v>128.28</v>
       </c>
       <c r="E233" s="5">
-        <v>137.34</v>
+        <v>128.91</v>
       </c>
       <c r="F233" s="5">
-        <v>137.31</v>
+        <v>128.88</v>
       </c>
       <c r="G233" s="6">
-        <v>1.592114E8</v>
+        <v>2.774445E8</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>45637.0</v>
+        <v>45643.0</v>
       </c>
       <c r="B234" s="2">
-        <v>137.36</v>
+        <v>129.09</v>
       </c>
       <c r="C234" s="2">
-        <v>140.17</v>
+        <v>131.59</v>
       </c>
       <c r="D234" s="2">
-        <v>135.21</v>
+        <v>126.86</v>
       </c>
       <c r="E234" s="2">
-        <v>139.31</v>
+        <v>130.39</v>
       </c>
       <c r="F234" s="2">
-        <v>139.28</v>
+        <v>130.36</v>
       </c>
       <c r="G234" s="3">
-        <v>1.849052E8</v>
+        <v>2.594103E8</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="4">
-        <v>45636.0</v>
+        <v>45642.0</v>
       </c>
       <c r="B235" s="5">
-        <v>139.01</v>
+        <v>134.18</v>
       </c>
       <c r="C235" s="5">
-        <v>141.82</v>
+        <v>134.4</v>
       </c>
       <c r="D235" s="5">
-        <v>133.79</v>
+        <v>130.42</v>
       </c>
       <c r="E235" s="5">
-        <v>135.07</v>
+        <v>132.0</v>
       </c>
       <c r="F235" s="5">
-        <v>135.04</v>
+        <v>131.97</v>
       </c>
       <c r="G235" s="6">
-        <v>2.100209E8</v>
+        <v>2.379511E8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>45635.0</v>
+        <v>45639.0</v>
       </c>
       <c r="B236" s="2">
-        <v>138.97</v>
+        <v>138.94</v>
       </c>
       <c r="C236" s="2">
-        <v>139.95</v>
+        <v>139.6</v>
       </c>
       <c r="D236" s="2">
-        <v>137.13</v>
+        <v>132.54</v>
       </c>
       <c r="E236" s="2">
-        <v>138.81</v>
+        <v>134.25</v>
       </c>
       <c r="F236" s="2">
-        <v>138.78</v>
+        <v>134.22</v>
       </c>
       <c r="G236" s="3">
-        <v>1.893086E8</v>
+        <v>2.315149E8</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="4">
+        <v>45638.0</v>
+      </c>
+      <c r="B237" s="5">
+        <v>137.08</v>
+      </c>
+      <c r="C237" s="5">
+        <v>138.44</v>
+      </c>
+      <c r="D237" s="5">
+        <v>135.8</v>
+      </c>
+      <c r="E237" s="5">
+        <v>137.34</v>
+      </c>
+      <c r="F237" s="5">
+        <v>137.31</v>
+      </c>
+      <c r="G237" s="6">
+        <v>1.592114E8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>45637.0</v>
+      </c>
+      <c r="B238" s="2">
+        <v>137.36</v>
+      </c>
+      <c r="C238" s="2">
+        <v>140.17</v>
+      </c>
+      <c r="D238" s="2">
+        <v>135.21</v>
+      </c>
+      <c r="E238" s="2">
+        <v>139.31</v>
+      </c>
+      <c r="F238" s="2">
+        <v>139.28</v>
+      </c>
+      <c r="G238" s="3">
+        <v>1.849052E8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="4">
+        <v>45636.0</v>
+      </c>
+      <c r="B239" s="5">
+        <v>139.01</v>
+      </c>
+      <c r="C239" s="5">
+        <v>141.82</v>
+      </c>
+      <c r="D239" s="5">
+        <v>133.79</v>
+      </c>
+      <c r="E239" s="5">
+        <v>135.07</v>
+      </c>
+      <c r="F239" s="5">
+        <v>135.04</v>
+      </c>
+      <c r="G239" s="6">
+        <v>2.100209E8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>45635.0</v>
+      </c>
+      <c r="B240" s="2">
+        <v>138.97</v>
+      </c>
+      <c r="C240" s="2">
+        <v>139.95</v>
+      </c>
+      <c r="D240" s="2">
+        <v>137.13</v>
+      </c>
+      <c r="E240" s="2">
+        <v>138.81</v>
+      </c>
+      <c r="F240" s="2">
+        <v>138.78</v>
+      </c>
+      <c r="G240" s="3">
+        <v>1.893086E8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="4">
         <v>45632.0</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B241" s="5">
         <v>144.6</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C241" s="5">
         <v>145.7</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D241" s="5">
         <v>141.31</v>
       </c>
-      <c r="E237" s="5">
+      <c r="E241" s="5">
         <v>142.44</v>
       </c>
-      <c r="F237" s="5">
+      <c r="F241" s="5">
         <v>142.41</v>
       </c>
-      <c r="G237" s="6">
+      <c r="G241" s="6">
         <v>1.885056E8</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="4">
-        <v>45631.0</v>
-      </c>
-      <c r="B238" s="5">
-        <v>145.11</v>
-      </c>
-      <c r="C238" s="5">
-        <v>146.54</v>
-      </c>
-      <c r="D238" s="5">
-        <v>143.95</v>
-      </c>
-      <c r="E238" s="5">
-        <v>145.06</v>
-      </c>
-      <c r="F238" s="5">
-        <v>145.03</v>
-      </c>
-      <c r="G238" s="6">
-        <v>1.726212E8</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1">
-        <v>45630.0</v>
-      </c>
-      <c r="B239" s="2">
-        <v>142.0</v>
-      </c>
-      <c r="C239" s="2">
-        <v>145.79</v>
-      </c>
-      <c r="D239" s="2">
-        <v>140.29</v>
-      </c>
-      <c r="E239" s="2">
-        <v>145.14</v>
-      </c>
-      <c r="F239" s="2">
-        <v>145.1</v>
-      </c>
-      <c r="G239" s="3">
-        <v>2.312243E8</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="4">
-        <v>45629.0</v>
-      </c>
-      <c r="B240" s="5">
-        <v>138.26</v>
-      </c>
-      <c r="C240" s="5">
-        <v>140.54</v>
-      </c>
-      <c r="D240" s="5">
-        <v>137.95</v>
-      </c>
-      <c r="E240" s="5">
-        <v>140.26</v>
-      </c>
-      <c r="F240" s="5">
-        <v>140.22</v>
-      </c>
-      <c r="G240" s="6">
-        <v>1.64414E8</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1">
-        <v>45628.0</v>
-      </c>
-      <c r="B241" s="2">
-        <v>138.83</v>
-      </c>
-      <c r="C241" s="2">
-        <v>140.45</v>
-      </c>
-      <c r="D241" s="2">
-        <v>137.82</v>
-      </c>
-      <c r="E241" s="2">
-        <v>138.63</v>
-      </c>
-      <c r="F241" s="2">
-        <v>138.59</v>
-      </c>
-      <c r="G241" s="3">
-        <v>1.716828E8</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="4">
-        <v>45625.0</v>
+        <v>45631.0</v>
       </c>
       <c r="B242" s="5">
-        <v>136.78</v>
+        <v>145.11</v>
       </c>
       <c r="C242" s="5">
-        <v>139.35</v>
+        <v>146.54</v>
       </c>
       <c r="D242" s="5">
-        <v>136.05</v>
+        <v>143.95</v>
       </c>
       <c r="E242" s="5">
-        <v>138.25</v>
+        <v>145.06</v>
       </c>
       <c r="F242" s="5">
-        <v>138.21</v>
+        <v>145.03</v>
       </c>
       <c r="G242" s="6">
-        <v>1.418632E8</v>
+        <v>1.726212E8</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1">
-        <v>45623.0</v>
+        <v>45630.0</v>
       </c>
       <c r="B243" s="2">
-        <v>135.01</v>
+        <v>142.0</v>
       </c>
       <c r="C243" s="2">
-        <v>137.22</v>
+        <v>145.79</v>
       </c>
       <c r="D243" s="2">
-        <v>131.8</v>
+        <v>140.29</v>
       </c>
       <c r="E243" s="2">
-        <v>135.34</v>
+        <v>145.14</v>
       </c>
       <c r="F243" s="2">
-        <v>135.3</v>
+        <v>145.1</v>
       </c>
       <c r="G243" s="3">
-        <v>2.263709E8</v>
+        <v>2.312243E8</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="4">
-        <v>45622.0</v>
+        <v>45629.0</v>
       </c>
       <c r="B244" s="5">
-        <v>137.7</v>
+        <v>138.26</v>
       </c>
       <c r="C244" s="5">
-        <v>139.3</v>
+        <v>140.54</v>
       </c>
       <c r="D244" s="5">
-        <v>135.67</v>
+        <v>137.95</v>
       </c>
       <c r="E244" s="5">
-        <v>136.92</v>
+        <v>140.26</v>
       </c>
       <c r="F244" s="5">
-        <v>136.88</v>
+        <v>140.22</v>
       </c>
       <c r="G244" s="6">
-        <v>1.902877E8</v>
+        <v>1.64414E8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>45621.0</v>
+        <v>45628.0</v>
       </c>
       <c r="B245" s="2">
-        <v>141.99</v>
+        <v>138.83</v>
       </c>
       <c r="C245" s="2">
-        <v>142.05</v>
+        <v>140.45</v>
       </c>
       <c r="D245" s="2">
-        <v>135.82</v>
+        <v>137.82</v>
       </c>
       <c r="E245" s="2">
-        <v>136.02</v>
+        <v>138.63</v>
       </c>
       <c r="F245" s="2">
-        <v>135.98</v>
+        <v>138.59</v>
       </c>
       <c r="G245" s="3">
-        <v>3.449419E8</v>
+        <v>1.716828E8</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="4">
-        <v>45618.0</v>
+        <v>45625.0</v>
       </c>
       <c r="B246" s="5">
-        <v>145.93</v>
+        <v>136.78</v>
       </c>
       <c r="C246" s="5">
-        <v>147.16</v>
+        <v>139.35</v>
       </c>
       <c r="D246" s="5">
-        <v>141.1</v>
+        <v>136.05</v>
       </c>
       <c r="E246" s="5">
-        <v>141.95</v>
+        <v>138.25</v>
       </c>
       <c r="F246" s="5">
-        <v>141.91</v>
+        <v>138.21</v>
       </c>
       <c r="G246" s="6">
-        <v>2.364062E8</v>
+        <v>1.418632E8</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1">
-        <v>45617.0</v>
+        <v>45623.0</v>
       </c>
       <c r="B247" s="2">
-        <v>149.35</v>
+        <v>135.01</v>
       </c>
       <c r="C247" s="2">
-        <v>152.89</v>
+        <v>137.22</v>
       </c>
       <c r="D247" s="2">
-        <v>140.7</v>
+        <v>131.8</v>
       </c>
       <c r="E247" s="2">
-        <v>146.67</v>
+        <v>135.34</v>
       </c>
       <c r="F247" s="2">
-        <v>146.63</v>
+        <v>135.3</v>
       </c>
       <c r="G247" s="3">
-        <v>4.009466E8</v>
+        <v>2.263709E8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="4">
-        <v>45616.0</v>
+        <v>45622.0</v>
       </c>
       <c r="B248" s="5">
-        <v>147.41</v>
+        <v>137.7</v>
       </c>
       <c r="C248" s="5">
-        <v>147.56</v>
+        <v>139.3</v>
       </c>
       <c r="D248" s="5">
-        <v>142.73</v>
+        <v>135.67</v>
       </c>
       <c r="E248" s="5">
-        <v>145.89</v>
+        <v>136.92</v>
       </c>
       <c r="F248" s="5">
-        <v>145.85</v>
+        <v>136.88</v>
       </c>
       <c r="G248" s="6">
-        <v>3.098717E8</v>
+        <v>1.902877E8</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>45615.0</v>
+        <v>45621.0</v>
       </c>
       <c r="B249" s="2">
-        <v>141.32</v>
+        <v>141.99</v>
       </c>
       <c r="C249" s="2">
-        <v>147.13</v>
+        <v>142.05</v>
       </c>
       <c r="D249" s="2">
-        <v>140.99</v>
+        <v>135.82</v>
       </c>
       <c r="E249" s="2">
-        <v>147.01</v>
+        <v>136.02</v>
       </c>
       <c r="F249" s="2">
-        <v>146.97</v>
+        <v>135.98</v>
       </c>
       <c r="G249" s="3">
-        <v>2.278349E8</v>
+        <v>3.449419E8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="4">
+        <v>45618.0</v>
+      </c>
+      <c r="B250" s="5">
+        <v>145.93</v>
+      </c>
+      <c r="C250" s="5">
+        <v>147.16</v>
+      </c>
+      <c r="D250" s="5">
+        <v>141.1</v>
+      </c>
+      <c r="E250" s="5">
+        <v>141.95</v>
+      </c>
+      <c r="F250" s="5">
+        <v>141.91</v>
+      </c>
+      <c r="G250" s="6">
+        <v>2.364062E8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>45617.0</v>
+      </c>
+      <c r="B251" s="2">
+        <v>149.35</v>
+      </c>
+      <c r="C251" s="2">
+        <v>152.89</v>
+      </c>
+      <c r="D251" s="2">
+        <v>140.7</v>
+      </c>
+      <c r="E251" s="2">
+        <v>146.67</v>
+      </c>
+      <c r="F251" s="2">
+        <v>146.63</v>
+      </c>
+      <c r="G251" s="3">
+        <v>4.009466E8</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="4">
+        <v>45616.0</v>
+      </c>
+      <c r="B252" s="5">
+        <v>147.41</v>
+      </c>
+      <c r="C252" s="5">
+        <v>147.56</v>
+      </c>
+      <c r="D252" s="5">
+        <v>142.73</v>
+      </c>
+      <c r="E252" s="5">
+        <v>145.89</v>
+      </c>
+      <c r="F252" s="5">
+        <v>145.85</v>
+      </c>
+      <c r="G252" s="6">
+        <v>3.098717E8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>45615.0</v>
+      </c>
+      <c r="B253" s="2">
+        <v>141.32</v>
+      </c>
+      <c r="C253" s="2">
+        <v>147.13</v>
+      </c>
+      <c r="D253" s="2">
+        <v>140.99</v>
+      </c>
+      <c r="E253" s="2">
+        <v>147.01</v>
+      </c>
+      <c r="F253" s="2">
+        <v>146.97</v>
+      </c>
+      <c r="G253" s="3">
+        <v>2.278349E8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="4">
         <v>45614.0</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B254" s="5">
         <v>139.5</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C254" s="5">
         <v>141.55</v>
       </c>
-      <c r="D250" s="5">
+      <c r="D254" s="5">
         <v>137.15</v>
       </c>
-      <c r="E250" s="5">
+      <c r="E254" s="5">
         <v>140.15</v>
       </c>
-      <c r="F250" s="5">
+      <c r="F254" s="5">
         <v>140.11</v>
       </c>
-      <c r="G250" s="6">
+      <c r="G254" s="6">
         <v>2.212053E8</v>
       </c>
     </row>
